--- a/OLVACOURIER.xlsx
+++ b/OLVACOURIER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JORGE\PRACTICANDO\CONTROL ESTADISTICO DE CALIDAD\TRABAJO PARCIAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51A6558-90B4-4A07-ABC9-103EAFEB84DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DC6B3A-361C-48C5-9294-37F5539A9609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1580,18 +1580,9 @@
     <t>Atraso en el transporte</t>
   </si>
   <si>
-    <t>Daño del paquete</t>
-  </si>
-  <si>
     <t>Falta de garantía</t>
   </si>
   <si>
-    <t>Inconvenientes con la devolución del paquete</t>
-  </si>
-  <si>
-    <t>Pérdida del paquete</t>
-  </si>
-  <si>
     <t>Facturación incorrecta</t>
   </si>
   <si>
@@ -1605,6 +1596,15 @@
   </si>
   <si>
     <t>id_envio</t>
+  </si>
+  <si>
+    <t>Inconvenientes con la devolución</t>
+  </si>
+  <si>
+    <t>Pérdida</t>
+  </si>
+  <si>
+    <t>Dañado</t>
   </si>
 </sst>
 </file>
@@ -1940,7 +1940,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D501"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1950,7 +1952,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1982,10 +1984,10 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>2.04</v>
+        <v>11.96</v>
       </c>
       <c r="D2">
-        <v>4.8899999999999997</v>
+        <v>10.43</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -1997,7 +1999,7 @@
         <v>10</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -2008,22 +2010,22 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>0.81</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="D3">
-        <v>1.39</v>
+        <v>3.73</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -2034,16 +2036,16 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>4.33</v>
+        <v>2.15</v>
       </c>
       <c r="D4">
-        <v>10.33</v>
+        <v>3.84</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
@@ -2060,22 +2062,22 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>4.33</v>
+        <v>2.39</v>
       </c>
       <c r="D5">
-        <v>9.86</v>
+        <v>3.84</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -2086,10 +2088,10 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>2.57</v>
+        <v>1.42</v>
       </c>
       <c r="D6">
-        <v>6.07</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -2112,16 +2114,16 @@
         <v>19</v>
       </c>
       <c r="C7">
-        <v>5.3</v>
+        <v>5.98</v>
       </c>
       <c r="D7">
-        <v>11.38</v>
+        <v>8.15</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
@@ -2138,22 +2140,22 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>2.4</v>
+        <v>1.74</v>
       </c>
       <c r="D8">
-        <v>5.94</v>
+        <v>3.54</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -2164,10 +2166,10 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>6.74</v>
+        <v>14.26</v>
       </c>
       <c r="D9">
-        <v>15.34</v>
+        <v>12.94</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -2190,10 +2192,10 @@
         <v>19</v>
       </c>
       <c r="C10">
-        <v>2.38</v>
+        <v>5.28</v>
       </c>
       <c r="D10">
-        <v>5.38</v>
+        <v>8.11</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -2216,10 +2218,10 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>0.8</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="D11">
-        <v>1.72</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -2242,10 +2244,10 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>4.79</v>
+        <v>4.96</v>
       </c>
       <c r="D12">
-        <v>10.57</v>
+        <v>8.41</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -2268,10 +2270,10 @@
         <v>8</v>
       </c>
       <c r="C13">
-        <v>9.31</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="D13">
-        <v>19.53</v>
+        <v>12.5</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -2283,7 +2285,7 @@
         <v>10</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -2294,10 +2296,10 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>5.75</v>
+        <v>5.79</v>
       </c>
       <c r="D14">
-        <v>11.43</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="E14" t="s">
         <v>13</v>
@@ -2320,10 +2322,10 @@
         <v>12</v>
       </c>
       <c r="C15">
-        <v>9.74</v>
+        <v>2.36</v>
       </c>
       <c r="D15">
-        <v>17.09</v>
+        <v>3.52</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -2346,10 +2348,10 @@
         <v>8</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>14.03</v>
       </c>
       <c r="D16">
-        <v>13.59</v>
+        <v>14.42</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -2372,16 +2374,16 @@
         <v>12</v>
       </c>
       <c r="C17">
-        <v>7.97</v>
+        <v>2.04</v>
       </c>
       <c r="D17">
-        <v>18.059999999999999</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -2398,10 +2400,10 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <v>6.83</v>
+        <v>5.75</v>
       </c>
       <c r="D18">
-        <v>11.43</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -2424,10 +2426,10 @@
         <v>8</v>
       </c>
       <c r="C19">
-        <v>0.95</v>
+        <v>12.32</v>
       </c>
       <c r="D19">
-        <v>1.48</v>
+        <v>13.01</v>
       </c>
       <c r="E19" t="s">
         <v>13</v>
@@ -2439,7 +2441,7 @@
         <v>10</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -2450,16 +2452,16 @@
         <v>12</v>
       </c>
       <c r="C20">
-        <v>8.67</v>
+        <v>1.87</v>
       </c>
       <c r="D20">
-        <v>17.16</v>
+        <v>3.81</v>
       </c>
       <c r="E20" t="s">
         <v>13</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -2476,10 +2478,10 @@
         <v>8</v>
       </c>
       <c r="C21">
-        <v>2.69</v>
+        <v>10.15</v>
       </c>
       <c r="D21">
-        <v>4.55</v>
+        <v>12.47</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -2491,7 +2493,7 @@
         <v>10</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -2502,10 +2504,10 @@
         <v>8</v>
       </c>
       <c r="C22">
-        <v>5.84</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="D22">
-        <v>12.68</v>
+        <v>13.01</v>
       </c>
       <c r="E22" t="s">
         <v>13</v>
@@ -2528,10 +2530,10 @@
         <v>8</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>9.65</v>
       </c>
       <c r="D23">
-        <v>13.8</v>
+        <v>13.56</v>
       </c>
       <c r="E23" t="s">
         <v>13</v>
@@ -2554,10 +2556,10 @@
         <v>12</v>
       </c>
       <c r="C24">
-        <v>5.3</v>
+        <v>1.33</v>
       </c>
       <c r="D24">
-        <v>12.8</v>
+        <v>3.65</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -2569,7 +2571,7 @@
         <v>10</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -2580,10 +2582,10 @@
         <v>12</v>
       </c>
       <c r="C25">
-        <v>9.69</v>
+        <v>2.6</v>
       </c>
       <c r="D25">
-        <v>22.56</v>
+        <v>3.88</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -2606,10 +2608,10 @@
         <v>8</v>
       </c>
       <c r="C26">
-        <v>5.7</v>
+        <v>11.51</v>
       </c>
       <c r="D26">
-        <v>11.31</v>
+        <v>9.94</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -2632,16 +2634,16 @@
         <v>12</v>
       </c>
       <c r="C27">
-        <v>3.9</v>
+        <v>2.19</v>
       </c>
       <c r="D27">
-        <v>8.27</v>
+        <v>4.66</v>
       </c>
       <c r="E27" t="s">
         <v>13</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27" t="s">
         <v>14</v>
@@ -2658,10 +2660,10 @@
         <v>8</v>
       </c>
       <c r="C28">
-        <v>9.34</v>
+        <v>9.56</v>
       </c>
       <c r="D28">
-        <v>22.71</v>
+        <v>9.58</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
@@ -2673,7 +2675,7 @@
         <v>10</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -2684,10 +2686,10 @@
         <v>8</v>
       </c>
       <c r="C29">
-        <v>5.89</v>
+        <v>12.59</v>
       </c>
       <c r="D29">
-        <v>8.9600000000000009</v>
+        <v>9.5299999999999994</v>
       </c>
       <c r="E29" t="s">
         <v>13</v>
@@ -2699,7 +2701,7 @@
         <v>10</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -2710,16 +2712,16 @@
         <v>12</v>
       </c>
       <c r="C30">
-        <v>6.83</v>
+        <v>1.37</v>
       </c>
       <c r="D30">
-        <v>11.92</v>
+        <v>3.51</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
       </c>
       <c r="F30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -2736,22 +2738,22 @@
         <v>12</v>
       </c>
       <c r="C31">
-        <v>8.49</v>
+        <v>1.29</v>
       </c>
       <c r="D31">
-        <v>14.64</v>
+        <v>3.06</v>
       </c>
       <c r="E31" t="s">
         <v>13</v>
       </c>
       <c r="F31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
       </c>
       <c r="H31">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -2762,16 +2764,16 @@
         <v>12</v>
       </c>
       <c r="C32">
-        <v>5.23</v>
+        <v>2.41</v>
       </c>
       <c r="D32">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="E32" t="s">
         <v>13</v>
       </c>
       <c r="F32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G32" t="s">
         <v>14</v>
@@ -2788,16 +2790,16 @@
         <v>12</v>
       </c>
       <c r="C33">
-        <v>6.53</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="D33">
-        <v>14.6</v>
+        <v>3.29</v>
       </c>
       <c r="E33" t="s">
         <v>13</v>
       </c>
       <c r="F33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G33" t="s">
         <v>14</v>
@@ -2814,10 +2816,10 @@
         <v>8</v>
       </c>
       <c r="C34">
-        <v>3.26</v>
+        <v>12.89</v>
       </c>
       <c r="D34">
-        <v>5.94</v>
+        <v>11.33</v>
       </c>
       <c r="E34" t="s">
         <v>13</v>
@@ -2840,10 +2842,10 @@
         <v>8</v>
       </c>
       <c r="C35">
-        <v>2.15</v>
+        <v>13.35</v>
       </c>
       <c r="D35">
-        <v>4.05</v>
+        <v>11.75</v>
       </c>
       <c r="E35" t="s">
         <v>13</v>
@@ -2855,7 +2857,7 @@
         <v>14</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -2866,10 +2868,10 @@
         <v>8</v>
       </c>
       <c r="C36">
-        <v>9.5299999999999994</v>
+        <v>14.09</v>
       </c>
       <c r="D36">
-        <v>19.14</v>
+        <v>14.19</v>
       </c>
       <c r="E36" t="s">
         <v>13</v>
@@ -2892,10 +2894,10 @@
         <v>19</v>
       </c>
       <c r="C37">
-        <v>7.25</v>
+        <v>4.62</v>
       </c>
       <c r="D37">
-        <v>12.92</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="E37" t="s">
         <v>13</v>
@@ -2918,10 +2920,10 @@
         <v>19</v>
       </c>
       <c r="C38">
-        <v>3.32</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="D38">
-        <v>8.17</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="E38" t="s">
         <v>13</v>
@@ -2944,10 +2946,10 @@
         <v>19</v>
       </c>
       <c r="C39">
-        <v>2.12</v>
+        <v>5.79</v>
       </c>
       <c r="D39">
-        <v>3.61</v>
+        <v>9.33</v>
       </c>
       <c r="E39" t="s">
         <v>9</v>
@@ -2970,10 +2972,10 @@
         <v>8</v>
       </c>
       <c r="C40">
-        <v>0.54</v>
+        <v>9.7100000000000009</v>
       </c>
       <c r="D40">
-        <v>0.87</v>
+        <v>9.6</v>
       </c>
       <c r="E40" t="s">
         <v>13</v>
@@ -2996,10 +2998,10 @@
         <v>12</v>
       </c>
       <c r="C41">
-        <v>2.73</v>
+        <v>1.46</v>
       </c>
       <c r="D41">
-        <v>4.45</v>
+        <v>3.73</v>
       </c>
       <c r="E41" t="s">
         <v>9</v>
@@ -3011,7 +3013,7 @@
         <v>10</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -3022,10 +3024,10 @@
         <v>19</v>
       </c>
       <c r="C42">
-        <v>3.22</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="D42">
-        <v>6.66</v>
+        <v>8.7100000000000009</v>
       </c>
       <c r="E42" t="s">
         <v>13</v>
@@ -3037,7 +3039,7 @@
         <v>14</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -3048,10 +3050,10 @@
         <v>8</v>
       </c>
       <c r="C43">
-        <v>5.12</v>
+        <v>13.59</v>
       </c>
       <c r="D43">
-        <v>12.09</v>
+        <v>13.2</v>
       </c>
       <c r="E43" t="s">
         <v>9</v>
@@ -3074,10 +3076,10 @@
         <v>8</v>
       </c>
       <c r="C44">
-        <v>3.58</v>
+        <v>9.69</v>
       </c>
       <c r="D44">
-        <v>7.11</v>
+        <v>10.25</v>
       </c>
       <c r="E44" t="s">
         <v>9</v>
@@ -3100,10 +3102,10 @@
         <v>8</v>
       </c>
       <c r="C45">
-        <v>8.09</v>
+        <v>9.52</v>
       </c>
       <c r="D45">
-        <v>13.74</v>
+        <v>11.8</v>
       </c>
       <c r="E45" t="s">
         <v>9</v>
@@ -3115,7 +3117,7 @@
         <v>10</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -3126,10 +3128,10 @@
         <v>8</v>
       </c>
       <c r="C46">
-        <v>3.4</v>
+        <v>14.21</v>
       </c>
       <c r="D46">
-        <v>5.66</v>
+        <v>12.35</v>
       </c>
       <c r="E46" t="s">
         <v>9</v>
@@ -3152,10 +3154,10 @@
         <v>19</v>
       </c>
       <c r="C47">
-        <v>8.4499999999999993</v>
+        <v>4.08</v>
       </c>
       <c r="D47">
-        <v>12.74</v>
+        <v>6.23</v>
       </c>
       <c r="E47" t="s">
         <v>9</v>
@@ -3167,7 +3169,7 @@
         <v>10</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -3178,16 +3180,16 @@
         <v>12</v>
       </c>
       <c r="C48">
-        <v>6.8</v>
+        <v>2.7</v>
       </c>
       <c r="D48">
-        <v>11.29</v>
+        <v>3.3</v>
       </c>
       <c r="E48" t="s">
         <v>13</v>
       </c>
       <c r="F48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -3204,22 +3206,22 @@
         <v>12</v>
       </c>
       <c r="C49">
-        <v>5.81</v>
+        <v>1.86</v>
       </c>
       <c r="D49">
-        <v>14.23</v>
+        <v>3.23</v>
       </c>
       <c r="E49" t="s">
         <v>9</v>
       </c>
       <c r="F49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G49" t="s">
         <v>14</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -3230,10 +3232,10 @@
         <v>19</v>
       </c>
       <c r="C50">
-        <v>2.2799999999999998</v>
+        <v>3.6</v>
       </c>
       <c r="D50">
-        <v>5.0199999999999996</v>
+        <v>5.21</v>
       </c>
       <c r="E50" t="s">
         <v>13</v>
@@ -3245,7 +3247,7 @@
         <v>10</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -3256,16 +3258,16 @@
         <v>12</v>
       </c>
       <c r="C51">
-        <v>1.44</v>
+        <v>2.66</v>
       </c>
       <c r="D51">
-        <v>2.38</v>
+        <v>4.43</v>
       </c>
       <c r="E51" t="s">
         <v>9</v>
       </c>
       <c r="F51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G51" t="s">
         <v>10</v>
@@ -3282,10 +3284,10 @@
         <v>19</v>
       </c>
       <c r="C52">
-        <v>0.95</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="D52">
-        <v>2.34</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="E52" t="s">
         <v>13</v>
@@ -3297,7 +3299,7 @@
         <v>10</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -3308,10 +3310,10 @@
         <v>19</v>
       </c>
       <c r="C53">
-        <v>2.66</v>
+        <v>6.88</v>
       </c>
       <c r="D53">
-        <v>4.82</v>
+        <v>8.89</v>
       </c>
       <c r="E53" t="s">
         <v>9</v>
@@ -3334,16 +3336,16 @@
         <v>12</v>
       </c>
       <c r="C54">
-        <v>3.07</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D54">
-        <v>7.12</v>
+        <v>4.26</v>
       </c>
       <c r="E54" t="s">
         <v>13</v>
       </c>
       <c r="F54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G54" t="s">
         <v>14</v>
@@ -3360,16 +3362,16 @@
         <v>12</v>
       </c>
       <c r="C55">
-        <v>7.3</v>
+        <v>1.85</v>
       </c>
       <c r="D55">
-        <v>14.14</v>
+        <v>3.26</v>
       </c>
       <c r="E55" t="s">
         <v>9</v>
       </c>
       <c r="F55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G55" t="s">
         <v>10</v>
@@ -3386,10 +3388,10 @@
         <v>8</v>
       </c>
       <c r="C56">
-        <v>2.16</v>
+        <v>12.79</v>
       </c>
       <c r="D56">
-        <v>3.8</v>
+        <v>14.07</v>
       </c>
       <c r="E56" t="s">
         <v>13</v>
@@ -3412,16 +3414,16 @@
         <v>12</v>
       </c>
       <c r="C57">
-        <v>9.6999999999999993</v>
+        <v>1.97</v>
       </c>
       <c r="D57">
-        <v>15.49</v>
+        <v>3.99</v>
       </c>
       <c r="E57" t="s">
         <v>13</v>
       </c>
       <c r="F57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G57" t="s">
         <v>14</v>
@@ -3438,10 +3440,10 @@
         <v>19</v>
       </c>
       <c r="C58">
-        <v>1.61</v>
+        <v>6.6</v>
       </c>
       <c r="D58">
-        <v>3.84</v>
+        <v>6.79</v>
       </c>
       <c r="E58" t="s">
         <v>13</v>
@@ -3464,10 +3466,10 @@
         <v>19</v>
       </c>
       <c r="C59">
-        <v>1.41</v>
+        <v>7.52</v>
       </c>
       <c r="D59">
-        <v>3.22</v>
+        <v>6.11</v>
       </c>
       <c r="E59" t="s">
         <v>13</v>
@@ -3490,10 +3492,10 @@
         <v>8</v>
       </c>
       <c r="C60">
-        <v>3.26</v>
+        <v>11.31</v>
       </c>
       <c r="D60">
-        <v>5.48</v>
+        <v>14.39</v>
       </c>
       <c r="E60" t="s">
         <v>13</v>
@@ -3505,7 +3507,7 @@
         <v>10</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -3516,16 +3518,16 @@
         <v>12</v>
       </c>
       <c r="C61">
-        <v>2.06</v>
+        <v>2.64</v>
       </c>
       <c r="D61">
-        <v>4.1900000000000004</v>
+        <v>4.29</v>
       </c>
       <c r="E61" t="s">
         <v>9</v>
       </c>
       <c r="F61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G61" t="s">
         <v>14</v>
@@ -3542,10 +3544,10 @@
         <v>19</v>
       </c>
       <c r="C62">
-        <v>5.24</v>
+        <v>6.01</v>
       </c>
       <c r="D62">
-        <v>9.09</v>
+        <v>8.41</v>
       </c>
       <c r="E62" t="s">
         <v>13</v>
@@ -3557,7 +3559,7 @@
         <v>10</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -3568,10 +3570,10 @@
         <v>12</v>
       </c>
       <c r="C63">
-        <v>5.46</v>
+        <v>2.48</v>
       </c>
       <c r="D63">
-        <v>13.42</v>
+        <v>3.74</v>
       </c>
       <c r="E63" t="s">
         <v>13</v>
@@ -3594,10 +3596,10 @@
         <v>19</v>
       </c>
       <c r="C64">
-        <v>6.97</v>
+        <v>5.56</v>
       </c>
       <c r="D64">
-        <v>13.65</v>
+        <v>7.09</v>
       </c>
       <c r="E64" t="s">
         <v>13</v>
@@ -3620,16 +3622,16 @@
         <v>12</v>
       </c>
       <c r="C65">
-        <v>5.56</v>
+        <v>2.85</v>
       </c>
       <c r="D65">
-        <v>11.76</v>
+        <v>3.1</v>
       </c>
       <c r="E65" t="s">
         <v>13</v>
       </c>
       <c r="F65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G65" t="s">
         <v>10</v>
@@ -3646,10 +3648,10 @@
         <v>8</v>
       </c>
       <c r="C66">
-        <v>9.4499999999999993</v>
+        <v>11.86</v>
       </c>
       <c r="D66">
-        <v>22.78</v>
+        <v>11.56</v>
       </c>
       <c r="E66" t="s">
         <v>9</v>
@@ -3672,10 +3674,10 @@
         <v>8</v>
       </c>
       <c r="C67">
-        <v>7.1</v>
+        <v>10.97</v>
       </c>
       <c r="D67">
-        <v>13.8</v>
+        <v>12.7</v>
       </c>
       <c r="E67" t="s">
         <v>13</v>
@@ -3698,16 +3700,16 @@
         <v>12</v>
       </c>
       <c r="C68">
-        <v>8.19</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D68">
-        <v>20.2</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="E68" t="s">
         <v>9</v>
       </c>
       <c r="F68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G68" t="s">
         <v>10</v>
@@ -3724,10 +3726,10 @@
         <v>19</v>
       </c>
       <c r="C69">
-        <v>4.43</v>
+        <v>7.61</v>
       </c>
       <c r="D69">
-        <v>6.88</v>
+        <v>7.94</v>
       </c>
       <c r="E69" t="s">
         <v>13</v>
@@ -3750,10 +3752,10 @@
         <v>12</v>
       </c>
       <c r="C70">
-        <v>9.48</v>
+        <v>2.85</v>
       </c>
       <c r="D70">
-        <v>20.25</v>
+        <v>3.77</v>
       </c>
       <c r="E70" t="s">
         <v>13</v>
@@ -3765,7 +3767,7 @@
         <v>10</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -3776,10 +3778,10 @@
         <v>8</v>
       </c>
       <c r="C71">
-        <v>8.1999999999999993</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="D71">
-        <v>14.24</v>
+        <v>11.34</v>
       </c>
       <c r="E71" t="s">
         <v>13</v>
@@ -3802,10 +3804,10 @@
         <v>19</v>
       </c>
       <c r="C72">
-        <v>0.69</v>
+        <v>7.32</v>
       </c>
       <c r="D72">
-        <v>1.7</v>
+        <v>5.51</v>
       </c>
       <c r="E72" t="s">
         <v>13</v>
@@ -3817,7 +3819,7 @@
         <v>10</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -3828,16 +3830,16 @@
         <v>12</v>
       </c>
       <c r="C73">
-        <v>5.72</v>
+        <v>1.62</v>
       </c>
       <c r="D73">
-        <v>13.71</v>
+        <v>4.68</v>
       </c>
       <c r="E73" t="s">
         <v>9</v>
       </c>
       <c r="F73">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G73" t="s">
         <v>14</v>
@@ -3854,10 +3856,10 @@
         <v>8</v>
       </c>
       <c r="C74">
-        <v>1.79</v>
+        <v>10.82</v>
       </c>
       <c r="D74">
-        <v>3.74</v>
+        <v>10.99</v>
       </c>
       <c r="E74" t="s">
         <v>13</v>
@@ -3869,7 +3871,7 @@
         <v>10</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -3880,10 +3882,10 @@
         <v>8</v>
       </c>
       <c r="C75">
-        <v>0.71</v>
+        <v>9.15</v>
       </c>
       <c r="D75">
-        <v>1.34</v>
+        <v>10.76</v>
       </c>
       <c r="E75" t="s">
         <v>9</v>
@@ -3895,7 +3897,7 @@
         <v>10</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -3906,10 +3908,10 @@
         <v>8</v>
       </c>
       <c r="C76">
-        <v>7.88</v>
+        <v>11.05</v>
       </c>
       <c r="D76">
-        <v>14.12</v>
+        <v>13.2</v>
       </c>
       <c r="E76" t="s">
         <v>9</v>
@@ -3921,7 +3923,7 @@
         <v>10</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -3932,10 +3934,10 @@
         <v>8</v>
       </c>
       <c r="C77">
-        <v>1.64</v>
+        <v>10.93</v>
       </c>
       <c r="D77">
-        <v>3.45</v>
+        <v>11.94</v>
       </c>
       <c r="E77" t="s">
         <v>9</v>
@@ -3958,10 +3960,10 @@
         <v>19</v>
       </c>
       <c r="C78">
-        <v>7.71</v>
+        <v>3.85</v>
       </c>
       <c r="D78">
-        <v>15.47</v>
+        <v>8.7200000000000006</v>
       </c>
       <c r="E78" t="s">
         <v>9</v>
@@ -3984,10 +3986,10 @@
         <v>19</v>
       </c>
       <c r="C79">
-        <v>4.17</v>
+        <v>5.52</v>
       </c>
       <c r="D79">
-        <v>8.44</v>
+        <v>5.68</v>
       </c>
       <c r="E79" t="s">
         <v>9</v>
@@ -3999,7 +4001,7 @@
         <v>10</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
@@ -4010,10 +4012,10 @@
         <v>8</v>
       </c>
       <c r="C80">
-        <v>4.92</v>
+        <v>11.53</v>
       </c>
       <c r="D80">
-        <v>7.59</v>
+        <v>11.57</v>
       </c>
       <c r="E80" t="s">
         <v>13</v>
@@ -4036,22 +4038,22 @@
         <v>12</v>
       </c>
       <c r="C81">
-        <v>5.03</v>
+        <v>2.77</v>
       </c>
       <c r="D81">
-        <v>9.42</v>
+        <v>3.85</v>
       </c>
       <c r="E81" t="s">
         <v>9</v>
       </c>
       <c r="F81">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G81" t="s">
         <v>10</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
@@ -4062,10 +4064,10 @@
         <v>19</v>
       </c>
       <c r="C82">
-        <v>9.8000000000000007</v>
+        <v>6.69</v>
       </c>
       <c r="D82">
-        <v>22.18</v>
+        <v>7.21</v>
       </c>
       <c r="E82" t="s">
         <v>13</v>
@@ -4077,7 +4079,7 @@
         <v>10</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
@@ -4088,10 +4090,10 @@
         <v>19</v>
       </c>
       <c r="C83">
-        <v>7.05</v>
+        <v>5.29</v>
       </c>
       <c r="D83">
-        <v>14.84</v>
+        <v>9.42</v>
       </c>
       <c r="E83" t="s">
         <v>13</v>
@@ -4103,7 +4105,7 @@
         <v>10</v>
       </c>
       <c r="H83">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
@@ -4114,10 +4116,10 @@
         <v>8</v>
       </c>
       <c r="C84">
-        <v>2.6</v>
+        <v>10.94</v>
       </c>
       <c r="D84">
-        <v>4.1100000000000003</v>
+        <v>14.01</v>
       </c>
       <c r="E84" t="s">
         <v>13</v>
@@ -4140,10 +4142,10 @@
         <v>8</v>
       </c>
       <c r="C85">
-        <v>2.27</v>
+        <v>12.15</v>
       </c>
       <c r="D85">
-        <v>4.97</v>
+        <v>12.78</v>
       </c>
       <c r="E85" t="s">
         <v>9</v>
@@ -4166,10 +4168,10 @@
         <v>19</v>
       </c>
       <c r="C86">
-        <v>5.51</v>
+        <v>6.73</v>
       </c>
       <c r="D86">
-        <v>12</v>
+        <v>6.15</v>
       </c>
       <c r="E86" t="s">
         <v>13</v>
@@ -4192,10 +4194,10 @@
         <v>19</v>
       </c>
       <c r="C87">
-        <v>5.63</v>
+        <v>8.07</v>
       </c>
       <c r="D87">
-        <v>9.43</v>
+        <v>6.15</v>
       </c>
       <c r="E87" t="s">
         <v>13</v>
@@ -4218,10 +4220,10 @@
         <v>19</v>
       </c>
       <c r="C88">
-        <v>5.54</v>
+        <v>3.46</v>
       </c>
       <c r="D88">
-        <v>12.91</v>
+        <v>5.33</v>
       </c>
       <c r="E88" t="s">
         <v>9</v>
@@ -4244,10 +4246,10 @@
         <v>12</v>
       </c>
       <c r="C89">
-        <v>7.58</v>
+        <v>1.96</v>
       </c>
       <c r="D89">
-        <v>15.88</v>
+        <v>4.79</v>
       </c>
       <c r="E89" t="s">
         <v>9</v>
@@ -4259,7 +4261,7 @@
         <v>10</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
@@ -4270,10 +4272,10 @@
         <v>19</v>
       </c>
       <c r="C90">
-        <v>5.03</v>
+        <v>5.3</v>
       </c>
       <c r="D90">
-        <v>11.44</v>
+        <v>8.01</v>
       </c>
       <c r="E90" t="s">
         <v>13</v>
@@ -4296,10 +4298,10 @@
         <v>8</v>
       </c>
       <c r="C91">
-        <v>0.55000000000000004</v>
+        <v>13.27</v>
       </c>
       <c r="D91">
-        <v>1.08</v>
+        <v>10.6</v>
       </c>
       <c r="E91" t="s">
         <v>13</v>
@@ -4322,10 +4324,10 @@
         <v>8</v>
       </c>
       <c r="C92">
-        <v>7.95</v>
+        <v>11.93</v>
       </c>
       <c r="D92">
-        <v>13.31</v>
+        <v>13.36</v>
       </c>
       <c r="E92" t="s">
         <v>9</v>
@@ -4337,7 +4339,7 @@
         <v>10</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
@@ -4348,10 +4350,10 @@
         <v>19</v>
       </c>
       <c r="C93">
-        <v>3.32</v>
+        <v>6.35</v>
       </c>
       <c r="D93">
-        <v>5.61</v>
+        <v>8.67</v>
       </c>
       <c r="E93" t="s">
         <v>13</v>
@@ -4374,10 +4376,10 @@
         <v>8</v>
       </c>
       <c r="C94">
-        <v>8.7200000000000006</v>
+        <v>12.57</v>
       </c>
       <c r="D94">
-        <v>19.14</v>
+        <v>10.97</v>
       </c>
       <c r="E94" t="s">
         <v>13</v>
@@ -4400,10 +4402,10 @@
         <v>8</v>
       </c>
       <c r="C95">
-        <v>5.21</v>
+        <v>13.04</v>
       </c>
       <c r="D95">
-        <v>12.51</v>
+        <v>13.54</v>
       </c>
       <c r="E95" t="s">
         <v>9</v>
@@ -4426,16 +4428,16 @@
         <v>12</v>
       </c>
       <c r="C96">
-        <v>4.4400000000000004</v>
+        <v>1.48</v>
       </c>
       <c r="D96">
-        <v>10.87</v>
+        <v>3.82</v>
       </c>
       <c r="E96" t="s">
         <v>13</v>
       </c>
       <c r="F96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G96" t="s">
         <v>10</v>
@@ -4452,16 +4454,16 @@
         <v>12</v>
       </c>
       <c r="C97">
-        <v>8.92</v>
+        <v>1.53</v>
       </c>
       <c r="D97">
-        <v>21.66</v>
+        <v>3.52</v>
       </c>
       <c r="E97" t="s">
         <v>9</v>
       </c>
       <c r="F97">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G97" t="s">
         <v>14</v>
@@ -4478,10 +4480,10 @@
         <v>19</v>
       </c>
       <c r="C98">
-        <v>0.81</v>
+        <v>5.39</v>
       </c>
       <c r="D98">
-        <v>1.32</v>
+        <v>5.68</v>
       </c>
       <c r="E98" t="s">
         <v>9</v>
@@ -4504,10 +4506,10 @@
         <v>12</v>
       </c>
       <c r="C99">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="D99">
-        <v>4.09</v>
+        <v>3.44</v>
       </c>
       <c r="E99" t="s">
         <v>13</v>
@@ -4519,7 +4521,7 @@
         <v>10</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
@@ -4530,10 +4532,10 @@
         <v>19</v>
       </c>
       <c r="C100">
-        <v>5.45</v>
+        <v>6.58</v>
       </c>
       <c r="D100">
-        <v>10.06</v>
+        <v>5.6</v>
       </c>
       <c r="E100" t="s">
         <v>13</v>
@@ -4556,10 +4558,10 @@
         <v>12</v>
       </c>
       <c r="C101">
-        <v>7.06</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="D101">
-        <v>17.12</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="E101" t="s">
         <v>13</v>
@@ -4582,10 +4584,10 @@
         <v>19</v>
       </c>
       <c r="C102">
-        <v>1.54</v>
+        <v>7.77</v>
       </c>
       <c r="D102">
-        <v>3.5</v>
+        <v>5.26</v>
       </c>
       <c r="E102" t="s">
         <v>13</v>
@@ -4608,10 +4610,10 @@
         <v>8</v>
       </c>
       <c r="C103">
-        <v>5.98</v>
+        <v>11.9</v>
       </c>
       <c r="D103">
-        <v>11.32</v>
+        <v>10.96</v>
       </c>
       <c r="E103" t="s">
         <v>9</v>
@@ -4634,10 +4636,10 @@
         <v>12</v>
       </c>
       <c r="C104">
-        <v>5.58</v>
+        <v>1.97</v>
       </c>
       <c r="D104">
-        <v>10.89</v>
+        <v>3.13</v>
       </c>
       <c r="E104" t="s">
         <v>13</v>
@@ -4660,10 +4662,10 @@
         <v>8</v>
       </c>
       <c r="C105">
-        <v>7.41</v>
+        <v>11.84</v>
       </c>
       <c r="D105">
-        <v>14</v>
+        <v>14.47</v>
       </c>
       <c r="E105" t="s">
         <v>13</v>
@@ -4675,7 +4677,7 @@
         <v>14</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
@@ -4686,10 +4688,10 @@
         <v>8</v>
       </c>
       <c r="C106">
-        <v>6.68</v>
+        <v>13.75</v>
       </c>
       <c r="D106">
-        <v>12.56</v>
+        <v>13.12</v>
       </c>
       <c r="E106" t="s">
         <v>13</v>
@@ -4712,10 +4714,10 @@
         <v>19</v>
       </c>
       <c r="C107">
-        <v>1.61</v>
+        <v>5.49</v>
       </c>
       <c r="D107">
-        <v>3.28</v>
+        <v>6.45</v>
       </c>
       <c r="E107" t="s">
         <v>9</v>
@@ -4727,7 +4729,7 @@
         <v>14</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
@@ -4738,16 +4740,16 @@
         <v>12</v>
       </c>
       <c r="C108">
-        <v>0.69</v>
+        <v>2.12</v>
       </c>
       <c r="D108">
-        <v>1.21</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="E108" t="s">
         <v>13</v>
       </c>
       <c r="F108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G108" t="s">
         <v>14</v>
@@ -4764,10 +4766,10 @@
         <v>8</v>
       </c>
       <c r="C109">
-        <v>1.1599999999999999</v>
+        <v>12.96</v>
       </c>
       <c r="D109">
-        <v>2.87</v>
+        <v>13.75</v>
       </c>
       <c r="E109" t="s">
         <v>9</v>
@@ -4779,7 +4781,7 @@
         <v>10</v>
       </c>
       <c r="H109">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
@@ -4790,10 +4792,10 @@
         <v>12</v>
       </c>
       <c r="C110">
-        <v>5.07</v>
+        <v>2.59</v>
       </c>
       <c r="D110">
-        <v>10.18</v>
+        <v>4.28</v>
       </c>
       <c r="E110" t="s">
         <v>13</v>
@@ -4805,7 +4807,7 @@
         <v>10</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
@@ -4816,10 +4818,10 @@
         <v>8</v>
       </c>
       <c r="C111">
-        <v>0.71</v>
+        <v>11.33</v>
       </c>
       <c r="D111">
-        <v>1.21</v>
+        <v>14.5</v>
       </c>
       <c r="E111" t="s">
         <v>9</v>
@@ -4831,7 +4833,7 @@
         <v>10</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
@@ -4842,10 +4844,10 @@
         <v>8</v>
       </c>
       <c r="C112">
-        <v>4.96</v>
+        <v>11.38</v>
       </c>
       <c r="D112">
-        <v>11.72</v>
+        <v>13.21</v>
       </c>
       <c r="E112" t="s">
         <v>9</v>
@@ -4868,10 +4870,10 @@
         <v>12</v>
       </c>
       <c r="C113">
-        <v>6.36</v>
+        <v>2.54</v>
       </c>
       <c r="D113">
-        <v>13.24</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="E113" t="s">
         <v>13</v>
@@ -4894,10 +4896,10 @@
         <v>19</v>
       </c>
       <c r="C114">
-        <v>4.51</v>
+        <v>5.12</v>
       </c>
       <c r="D114">
-        <v>9.83</v>
+        <v>7.25</v>
       </c>
       <c r="E114" t="s">
         <v>13</v>
@@ -4909,7 +4911,7 @@
         <v>10</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
@@ -4920,16 +4922,16 @@
         <v>12</v>
       </c>
       <c r="C115">
-        <v>6.53</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="D115">
-        <v>11.43</v>
+        <v>3.38</v>
       </c>
       <c r="E115" t="s">
         <v>13</v>
       </c>
       <c r="F115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G115" t="s">
         <v>14</v>
@@ -4946,10 +4948,10 @@
         <v>19</v>
       </c>
       <c r="C116">
-        <v>4.75</v>
+        <v>5.52</v>
       </c>
       <c r="D116">
-        <v>9.14</v>
+        <v>8.23</v>
       </c>
       <c r="E116" t="s">
         <v>13</v>
@@ -4972,10 +4974,10 @@
         <v>19</v>
       </c>
       <c r="C117">
-        <v>4.76</v>
+        <v>7.45</v>
       </c>
       <c r="D117">
-        <v>10.29</v>
+        <v>5.15</v>
       </c>
       <c r="E117" t="s">
         <v>13</v>
@@ -4987,7 +4989,7 @@
         <v>10</v>
       </c>
       <c r="H117">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
@@ -4998,10 +5000,10 @@
         <v>19</v>
       </c>
       <c r="C118">
-        <v>1.07</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="D118">
-        <v>2</v>
+        <v>5.3</v>
       </c>
       <c r="E118" t="s">
         <v>9</v>
@@ -5024,10 +5026,10 @@
         <v>19</v>
       </c>
       <c r="C119">
-        <v>9.26</v>
+        <v>6.56</v>
       </c>
       <c r="D119">
-        <v>15.79</v>
+        <v>5.85</v>
       </c>
       <c r="E119" t="s">
         <v>13</v>
@@ -5039,7 +5041,7 @@
         <v>10</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
@@ -5050,10 +5052,10 @@
         <v>8</v>
       </c>
       <c r="C120">
-        <v>4.0999999999999996</v>
+        <v>10.18</v>
       </c>
       <c r="D120">
-        <v>8.57</v>
+        <v>11.33</v>
       </c>
       <c r="E120" t="s">
         <v>9</v>
@@ -5076,10 +5078,10 @@
         <v>19</v>
       </c>
       <c r="C121">
-        <v>8.2799999999999994</v>
+        <v>3.85</v>
       </c>
       <c r="D121">
-        <v>16.25</v>
+        <v>6.55</v>
       </c>
       <c r="E121" t="s">
         <v>9</v>
@@ -5091,7 +5093,7 @@
         <v>10</v>
       </c>
       <c r="H121">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
@@ -5102,10 +5104,10 @@
         <v>8</v>
       </c>
       <c r="C122">
-        <v>3.69</v>
+        <v>13.68</v>
       </c>
       <c r="D122">
-        <v>5.62</v>
+        <v>12.08</v>
       </c>
       <c r="E122" t="s">
         <v>9</v>
@@ -5128,22 +5130,22 @@
         <v>12</v>
       </c>
       <c r="C123">
-        <v>6.74</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="D123">
-        <v>15.65</v>
+        <v>4.17</v>
       </c>
       <c r="E123" t="s">
         <v>9</v>
       </c>
       <c r="F123">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G123" t="s">
         <v>10</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
@@ -5154,10 +5156,10 @@
         <v>8</v>
       </c>
       <c r="C124">
-        <v>5.72</v>
+        <v>9.76</v>
       </c>
       <c r="D124">
-        <v>10.58</v>
+        <v>12.44</v>
       </c>
       <c r="E124" t="s">
         <v>9</v>
@@ -5169,7 +5171,7 @@
         <v>14</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
@@ -5180,10 +5182,10 @@
         <v>12</v>
       </c>
       <c r="C125">
-        <v>4.3</v>
+        <v>1.81</v>
       </c>
       <c r="D125">
-        <v>8.1</v>
+        <v>4.71</v>
       </c>
       <c r="E125" t="s">
         <v>9</v>
@@ -5206,10 +5208,10 @@
         <v>19</v>
       </c>
       <c r="C126">
-        <v>8.1</v>
+        <v>5.32</v>
       </c>
       <c r="D126">
-        <v>16.93</v>
+        <v>6.37</v>
       </c>
       <c r="E126" t="s">
         <v>13</v>
@@ -5232,10 +5234,10 @@
         <v>8</v>
       </c>
       <c r="C127">
-        <v>4.63</v>
+        <v>12.42</v>
       </c>
       <c r="D127">
-        <v>10.64</v>
+        <v>13.73</v>
       </c>
       <c r="E127" t="s">
         <v>13</v>
@@ -5247,7 +5249,7 @@
         <v>10</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
@@ -5258,10 +5260,10 @@
         <v>19</v>
       </c>
       <c r="C128">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="D128">
-        <v>10.64</v>
+        <v>6.46</v>
       </c>
       <c r="E128" t="s">
         <v>13</v>
@@ -5284,22 +5286,22 @@
         <v>12</v>
       </c>
       <c r="C129">
-        <v>4.18</v>
+        <v>1.28</v>
       </c>
       <c r="D129">
-        <v>8.14</v>
+        <v>4.54</v>
       </c>
       <c r="E129" t="s">
         <v>13</v>
       </c>
       <c r="F129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G129" t="s">
         <v>10</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
@@ -5310,10 +5312,10 @@
         <v>8</v>
       </c>
       <c r="C130">
-        <v>9.93</v>
+        <v>11.33</v>
       </c>
       <c r="D130">
-        <v>22.17</v>
+        <v>13.33</v>
       </c>
       <c r="E130" t="s">
         <v>9</v>
@@ -5336,10 +5338,10 @@
         <v>8</v>
       </c>
       <c r="C131">
-        <v>5.21</v>
+        <v>11.77</v>
       </c>
       <c r="D131">
-        <v>9.52</v>
+        <v>11.57</v>
       </c>
       <c r="E131" t="s">
         <v>9</v>
@@ -5362,10 +5364,10 @@
         <v>12</v>
       </c>
       <c r="C132">
-        <v>7.29</v>
+        <v>2.44</v>
       </c>
       <c r="D132">
-        <v>15.21</v>
+        <v>3.89</v>
       </c>
       <c r="E132" t="s">
         <v>13</v>
@@ -5388,10 +5390,10 @@
         <v>8</v>
       </c>
       <c r="C133">
-        <v>2.61</v>
+        <v>10.27</v>
       </c>
       <c r="D133">
-        <v>4.05</v>
+        <v>14.32</v>
       </c>
       <c r="E133" t="s">
         <v>13</v>
@@ -5403,7 +5405,7 @@
         <v>10</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
@@ -5414,10 +5416,10 @@
         <v>12</v>
       </c>
       <c r="C134">
-        <v>8.64</v>
+        <v>2.57</v>
       </c>
       <c r="D134">
-        <v>19.68</v>
+        <v>3.82</v>
       </c>
       <c r="E134" t="s">
         <v>13</v>
@@ -5440,16 +5442,16 @@
         <v>12</v>
       </c>
       <c r="C135">
-        <v>9.2200000000000006</v>
+        <v>2.38</v>
       </c>
       <c r="D135">
-        <v>17.38</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="E135" t="s">
         <v>9</v>
       </c>
       <c r="F135">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G135" t="s">
         <v>10</v>
@@ -5466,10 +5468,10 @@
         <v>19</v>
       </c>
       <c r="C136">
-        <v>1.1399999999999999</v>
+        <v>7.77</v>
       </c>
       <c r="D136">
-        <v>1.97</v>
+        <v>9.4700000000000006</v>
       </c>
       <c r="E136" t="s">
         <v>13</v>
@@ -5492,10 +5494,10 @@
         <v>8</v>
       </c>
       <c r="C137">
-        <v>7.9</v>
+        <v>11.09</v>
       </c>
       <c r="D137">
-        <v>16.43</v>
+        <v>11.83</v>
       </c>
       <c r="E137" t="s">
         <v>9</v>
@@ -5518,10 +5520,10 @@
         <v>8</v>
       </c>
       <c r="C138">
-        <v>1.38</v>
+        <v>11.44</v>
       </c>
       <c r="D138">
-        <v>2.92</v>
+        <v>11.07</v>
       </c>
       <c r="E138" t="s">
         <v>9</v>
@@ -5533,7 +5535,7 @@
         <v>10</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
@@ -5544,10 +5546,10 @@
         <v>8</v>
       </c>
       <c r="C139">
-        <v>6.5</v>
+        <v>11.59</v>
       </c>
       <c r="D139">
-        <v>11.07</v>
+        <v>13.69</v>
       </c>
       <c r="E139" t="s">
         <v>13</v>
@@ -5559,7 +5561,7 @@
         <v>10</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
@@ -5570,10 +5572,10 @@
         <v>12</v>
       </c>
       <c r="C140">
-        <v>8.69</v>
+        <v>2.63</v>
       </c>
       <c r="D140">
-        <v>16.86</v>
+        <v>3.26</v>
       </c>
       <c r="E140" t="s">
         <v>9</v>
@@ -5596,10 +5598,10 @@
         <v>12</v>
       </c>
       <c r="C141">
-        <v>2.29</v>
+        <v>1.58</v>
       </c>
       <c r="D141">
-        <v>3.96</v>
+        <v>3.72</v>
       </c>
       <c r="E141" t="s">
         <v>9</v>
@@ -5611,7 +5613,7 @@
         <v>10</v>
       </c>
       <c r="H141">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
@@ -5622,16 +5624,16 @@
         <v>12</v>
       </c>
       <c r="C142">
-        <v>7.08</v>
+        <v>1.33</v>
       </c>
       <c r="D142">
-        <v>15.5</v>
+        <v>3.88</v>
       </c>
       <c r="E142" t="s">
         <v>13</v>
       </c>
       <c r="F142">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G142" t="s">
         <v>14</v>
@@ -5648,16 +5650,16 @@
         <v>12</v>
       </c>
       <c r="C143">
-        <v>5.1100000000000003</v>
+        <v>2</v>
       </c>
       <c r="D143">
-        <v>9.99</v>
+        <v>4.2</v>
       </c>
       <c r="E143" t="s">
         <v>9</v>
       </c>
       <c r="F143">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G143" t="s">
         <v>10</v>
@@ -5674,16 +5676,16 @@
         <v>12</v>
       </c>
       <c r="C144">
-        <v>3.33</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="D144">
-        <v>5.99</v>
+        <v>3.74</v>
       </c>
       <c r="E144" t="s">
         <v>9</v>
       </c>
       <c r="F144">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G144" t="s">
         <v>10</v>
@@ -5700,10 +5702,10 @@
         <v>8</v>
       </c>
       <c r="C145">
-        <v>2.59</v>
+        <v>9.49</v>
       </c>
       <c r="D145">
-        <v>5.61</v>
+        <v>9.93</v>
       </c>
       <c r="E145" t="s">
         <v>9</v>
@@ -5715,7 +5717,7 @@
         <v>14</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
@@ -5726,10 +5728,10 @@
         <v>8</v>
       </c>
       <c r="C146">
-        <v>7.43</v>
+        <v>10.09</v>
       </c>
       <c r="D146">
-        <v>16.55</v>
+        <v>14.46</v>
       </c>
       <c r="E146" t="s">
         <v>9</v>
@@ -5741,7 +5743,7 @@
         <v>10</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
@@ -5752,10 +5754,10 @@
         <v>12</v>
       </c>
       <c r="C147">
-        <v>7.1</v>
+        <v>1.54</v>
       </c>
       <c r="D147">
-        <v>12.77</v>
+        <v>3.99</v>
       </c>
       <c r="E147" t="s">
         <v>9</v>
@@ -5778,10 +5780,10 @@
         <v>12</v>
       </c>
       <c r="C148">
-        <v>4.74</v>
+        <v>1.24</v>
       </c>
       <c r="D148">
-        <v>7.7</v>
+        <v>3.27</v>
       </c>
       <c r="E148" t="s">
         <v>9</v>
@@ -5804,10 +5806,10 @@
         <v>8</v>
       </c>
       <c r="C149">
-        <v>9.43</v>
+        <v>11.58</v>
       </c>
       <c r="D149">
-        <v>18.39</v>
+        <v>10.24</v>
       </c>
       <c r="E149" t="s">
         <v>13</v>
@@ -5830,10 +5832,10 @@
         <v>19</v>
       </c>
       <c r="C150">
-        <v>1.04</v>
+        <v>6.17</v>
       </c>
       <c r="D150">
-        <v>1.76</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="E150" t="s">
         <v>9</v>
@@ -5856,10 +5858,10 @@
         <v>8</v>
       </c>
       <c r="C151">
-        <v>8.42</v>
+        <v>11.74</v>
       </c>
       <c r="D151">
-        <v>15.81</v>
+        <v>12.22</v>
       </c>
       <c r="E151" t="s">
         <v>13</v>
@@ -5882,10 +5884,10 @@
         <v>19</v>
       </c>
       <c r="C152">
-        <v>1.32</v>
+        <v>8.16</v>
       </c>
       <c r="D152">
-        <v>2.57</v>
+        <v>5.27</v>
       </c>
       <c r="E152" t="s">
         <v>13</v>
@@ -5897,7 +5899,7 @@
         <v>10</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
@@ -5908,10 +5910,10 @@
         <v>12</v>
       </c>
       <c r="C153">
-        <v>8.81</v>
+        <v>1.79</v>
       </c>
       <c r="D153">
-        <v>21.11</v>
+        <v>3.87</v>
       </c>
       <c r="E153" t="s">
         <v>9</v>
@@ -5923,7 +5925,7 @@
         <v>10</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
@@ -5934,10 +5936,10 @@
         <v>19</v>
       </c>
       <c r="C154">
-        <v>6.99</v>
+        <v>7.27</v>
       </c>
       <c r="D154">
-        <v>13.32</v>
+        <v>6.1</v>
       </c>
       <c r="E154" t="s">
         <v>13</v>
@@ -5960,10 +5962,10 @@
         <v>19</v>
       </c>
       <c r="C155">
-        <v>7.89</v>
+        <v>4.78</v>
       </c>
       <c r="D155">
-        <v>18.86</v>
+        <v>5.16</v>
       </c>
       <c r="E155" t="s">
         <v>9</v>
@@ -5986,10 +5988,10 @@
         <v>19</v>
       </c>
       <c r="C156">
-        <v>7.95</v>
+        <v>7.72</v>
       </c>
       <c r="D156">
-        <v>16.59</v>
+        <v>9.32</v>
       </c>
       <c r="E156" t="s">
         <v>9</v>
@@ -6001,7 +6003,7 @@
         <v>10</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
@@ -6012,10 +6014,10 @@
         <v>8</v>
       </c>
       <c r="C157">
-        <v>5.1100000000000003</v>
+        <v>14</v>
       </c>
       <c r="D157">
-        <v>7.74</v>
+        <v>14.11</v>
       </c>
       <c r="E157" t="s">
         <v>13</v>
@@ -6027,7 +6029,7 @@
         <v>10</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
@@ -6038,10 +6040,10 @@
         <v>19</v>
       </c>
       <c r="C158">
-        <v>1.81</v>
+        <v>6.49</v>
       </c>
       <c r="D158">
-        <v>2.91</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="E158" t="s">
         <v>9</v>
@@ -6064,10 +6066,10 @@
         <v>8</v>
       </c>
       <c r="C159">
-        <v>7.75</v>
+        <v>9.6300000000000008</v>
       </c>
       <c r="D159">
-        <v>11.83</v>
+        <v>10.37</v>
       </c>
       <c r="E159" t="s">
         <v>9</v>
@@ -6090,10 +6092,10 @@
         <v>12</v>
       </c>
       <c r="C160">
-        <v>4.3</v>
+        <v>2.5</v>
       </c>
       <c r="D160">
-        <v>7.92</v>
+        <v>3.96</v>
       </c>
       <c r="E160" t="s">
         <v>9</v>
@@ -6116,10 +6118,10 @@
         <v>8</v>
       </c>
       <c r="C161">
-        <v>3.62</v>
+        <v>9.07</v>
       </c>
       <c r="D161">
-        <v>5.91</v>
+        <v>13.35</v>
       </c>
       <c r="E161" t="s">
         <v>9</v>
@@ -6142,10 +6144,10 @@
         <v>19</v>
       </c>
       <c r="C162">
-        <v>1.24</v>
+        <v>6.63</v>
       </c>
       <c r="D162">
-        <v>2.98</v>
+        <v>6.74</v>
       </c>
       <c r="E162" t="s">
         <v>13</v>
@@ -6157,7 +6159,7 @@
         <v>10</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
@@ -6168,10 +6170,10 @@
         <v>8</v>
       </c>
       <c r="C163">
-        <v>7.39</v>
+        <v>13.69</v>
       </c>
       <c r="D163">
-        <v>14.65</v>
+        <v>14.06</v>
       </c>
       <c r="E163" t="s">
         <v>9</v>
@@ -6194,10 +6196,10 @@
         <v>8</v>
       </c>
       <c r="C164">
-        <v>6.9</v>
+        <v>13.19</v>
       </c>
       <c r="D164">
-        <v>10.66</v>
+        <v>11.75</v>
       </c>
       <c r="E164" t="s">
         <v>13</v>
@@ -6209,7 +6211,7 @@
         <v>10</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
@@ -6220,10 +6222,10 @@
         <v>8</v>
       </c>
       <c r="C165">
-        <v>1.08</v>
+        <v>11.32</v>
       </c>
       <c r="D165">
-        <v>1.82</v>
+        <v>12.4</v>
       </c>
       <c r="E165" t="s">
         <v>13</v>
@@ -6235,7 +6237,7 @@
         <v>14</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
@@ -6246,10 +6248,10 @@
         <v>8</v>
       </c>
       <c r="C166">
-        <v>2.0499999999999998</v>
+        <v>11.9</v>
       </c>
       <c r="D166">
-        <v>3.88</v>
+        <v>13.21</v>
       </c>
       <c r="E166" t="s">
         <v>9</v>
@@ -6272,10 +6274,10 @@
         <v>8</v>
       </c>
       <c r="C167">
-        <v>8.8000000000000007</v>
+        <v>11.97</v>
       </c>
       <c r="D167">
-        <v>19.170000000000002</v>
+        <v>14.1</v>
       </c>
       <c r="E167" t="s">
         <v>9</v>
@@ -6287,7 +6289,7 @@
         <v>14</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
@@ -6298,10 +6300,10 @@
         <v>8</v>
       </c>
       <c r="C168">
-        <v>6.43</v>
+        <v>14.15</v>
       </c>
       <c r="D168">
-        <v>10.48</v>
+        <v>11.84</v>
       </c>
       <c r="E168" t="s">
         <v>9</v>
@@ -6324,16 +6326,16 @@
         <v>12</v>
       </c>
       <c r="C169">
-        <v>6.91</v>
+        <v>2.81</v>
       </c>
       <c r="D169">
-        <v>16.86</v>
+        <v>3.16</v>
       </c>
       <c r="E169" t="s">
         <v>13</v>
       </c>
       <c r="F169">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G169" t="s">
         <v>10</v>
@@ -6350,10 +6352,10 @@
         <v>8</v>
       </c>
       <c r="C170">
-        <v>2.31</v>
+        <v>14.49</v>
       </c>
       <c r="D170">
-        <v>5.33</v>
+        <v>11.01</v>
       </c>
       <c r="E170" t="s">
         <v>9</v>
@@ -6376,16 +6378,16 @@
         <v>12</v>
       </c>
       <c r="C171">
-        <v>1.35</v>
+        <v>1.6</v>
       </c>
       <c r="D171">
-        <v>2.68</v>
+        <v>3.29</v>
       </c>
       <c r="E171" t="s">
         <v>13</v>
       </c>
       <c r="F171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G171" t="s">
         <v>10</v>
@@ -6402,10 +6404,10 @@
         <v>8</v>
       </c>
       <c r="C172">
-        <v>4.8</v>
+        <v>12.05</v>
       </c>
       <c r="D172">
-        <v>11.16</v>
+        <v>9.57</v>
       </c>
       <c r="E172" t="s">
         <v>13</v>
@@ -6428,16 +6430,16 @@
         <v>12</v>
       </c>
       <c r="C173">
-        <v>2.2799999999999998</v>
+        <v>2.09</v>
       </c>
       <c r="D173">
-        <v>4.45</v>
+        <v>3.72</v>
       </c>
       <c r="E173" t="s">
         <v>13</v>
       </c>
       <c r="F173">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G173" t="s">
         <v>10</v>
@@ -6454,16 +6456,16 @@
         <v>12</v>
       </c>
       <c r="C174">
-        <v>8.91</v>
+        <v>1.66</v>
       </c>
       <c r="D174">
-        <v>15.05</v>
+        <v>3.52</v>
       </c>
       <c r="E174" t="s">
         <v>9</v>
       </c>
       <c r="F174">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G174" t="s">
         <v>10</v>
@@ -6480,22 +6482,22 @@
         <v>12</v>
       </c>
       <c r="C175">
+        <v>1.32</v>
+      </c>
+      <c r="D175">
+        <v>3.65</v>
+      </c>
+      <c r="E175" t="s">
+        <v>13</v>
+      </c>
+      <c r="F175">
         <v>1</v>
       </c>
-      <c r="D175">
-        <v>1.96</v>
-      </c>
-      <c r="E175" t="s">
-        <v>13</v>
-      </c>
-      <c r="F175">
-        <v>2</v>
-      </c>
       <c r="G175" t="s">
         <v>10</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
@@ -6506,10 +6508,10 @@
         <v>8</v>
       </c>
       <c r="C176">
-        <v>6.35</v>
+        <v>9.27</v>
       </c>
       <c r="D176">
-        <v>12.39</v>
+        <v>14.1</v>
       </c>
       <c r="E176" t="s">
         <v>9</v>
@@ -6532,10 +6534,10 @@
         <v>19</v>
       </c>
       <c r="C177">
-        <v>8.7100000000000009</v>
+        <v>3.92</v>
       </c>
       <c r="D177">
-        <v>19.09</v>
+        <v>6.03</v>
       </c>
       <c r="E177" t="s">
         <v>13</v>
@@ -6547,7 +6549,7 @@
         <v>10</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
@@ -6558,10 +6560,10 @@
         <v>12</v>
       </c>
       <c r="C178">
-        <v>3.81</v>
+        <v>1.6</v>
       </c>
       <c r="D178">
-        <v>7.04</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="E178" t="s">
         <v>13</v>
@@ -6584,22 +6586,22 @@
         <v>12</v>
       </c>
       <c r="C179">
-        <v>5.78</v>
+        <v>1.53</v>
       </c>
       <c r="D179">
-        <v>13.27</v>
+        <v>3.45</v>
       </c>
       <c r="E179" t="s">
         <v>9</v>
       </c>
       <c r="F179">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G179" t="s">
         <v>14</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
@@ -6610,10 +6612,10 @@
         <v>19</v>
       </c>
       <c r="C180">
-        <v>6.95</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="D180">
-        <v>13.45</v>
+        <v>8.7899999999999991</v>
       </c>
       <c r="E180" t="s">
         <v>13</v>
@@ -6636,10 +6638,10 @@
         <v>8</v>
       </c>
       <c r="C181">
-        <v>6.42</v>
+        <v>13.63</v>
       </c>
       <c r="D181">
-        <v>10.74</v>
+        <v>11.98</v>
       </c>
       <c r="E181" t="s">
         <v>9</v>
@@ -6651,7 +6653,7 @@
         <v>14</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
@@ -6662,10 +6664,10 @@
         <v>8</v>
       </c>
       <c r="C182">
-        <v>4.13</v>
+        <v>13.8</v>
       </c>
       <c r="D182">
-        <v>10.08</v>
+        <v>14.33</v>
       </c>
       <c r="E182" t="s">
         <v>13</v>
@@ -6688,10 +6690,10 @@
         <v>19</v>
       </c>
       <c r="C183">
-        <v>2.72</v>
+        <v>7.37</v>
       </c>
       <c r="D183">
-        <v>4.55</v>
+        <v>9.32</v>
       </c>
       <c r="E183" t="s">
         <v>9</v>
@@ -6714,10 +6716,10 @@
         <v>12</v>
       </c>
       <c r="C184">
-        <v>3.11</v>
+        <v>2.66</v>
       </c>
       <c r="D184">
-        <v>7.69</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="E184" t="s">
         <v>13</v>
@@ -6729,7 +6731,7 @@
         <v>10</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
@@ -6740,10 +6742,10 @@
         <v>19</v>
       </c>
       <c r="C185">
-        <v>1.98</v>
+        <v>8.33</v>
       </c>
       <c r="D185">
-        <v>4.58</v>
+        <v>8.35</v>
       </c>
       <c r="E185" t="s">
         <v>13</v>
@@ -6766,10 +6768,10 @@
         <v>12</v>
       </c>
       <c r="C186">
-        <v>3.36</v>
+        <v>1.69</v>
       </c>
       <c r="D186">
-        <v>7.05</v>
+        <v>3.44</v>
       </c>
       <c r="E186" t="s">
         <v>9</v>
@@ -6792,10 +6794,10 @@
         <v>12</v>
       </c>
       <c r="C187">
-        <v>1.1000000000000001</v>
+        <v>1.52</v>
       </c>
       <c r="D187">
-        <v>2.0299999999999998</v>
+        <v>3.91</v>
       </c>
       <c r="E187" t="s">
         <v>9</v>
@@ -6807,7 +6809,7 @@
         <v>14</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
@@ -6818,22 +6820,22 @@
         <v>12</v>
       </c>
       <c r="C188">
-        <v>8.5399999999999991</v>
+        <v>2.78</v>
       </c>
       <c r="D188">
-        <v>19.77</v>
+        <v>3.66</v>
       </c>
       <c r="E188" t="s">
         <v>13</v>
       </c>
       <c r="F188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G188" t="s">
         <v>10</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
@@ -6844,10 +6846,10 @@
         <v>19</v>
       </c>
       <c r="C189">
-        <v>1.44</v>
+        <v>7.08</v>
       </c>
       <c r="D189">
-        <v>3.13</v>
+        <v>6.73</v>
       </c>
       <c r="E189" t="s">
         <v>13</v>
@@ -6870,10 +6872,10 @@
         <v>19</v>
       </c>
       <c r="C190">
-        <v>1.29</v>
+        <v>5.3</v>
       </c>
       <c r="D190">
-        <v>2.36</v>
+        <v>5.7</v>
       </c>
       <c r="E190" t="s">
         <v>9</v>
@@ -6896,10 +6898,10 @@
         <v>19</v>
       </c>
       <c r="C191">
-        <v>5.52</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="D191">
-        <v>11.56</v>
+        <v>8.01</v>
       </c>
       <c r="E191" t="s">
         <v>9</v>
@@ -6911,7 +6913,7 @@
         <v>10</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
@@ -6922,10 +6924,10 @@
         <v>8</v>
       </c>
       <c r="C192">
-        <v>6.74</v>
+        <v>12.86</v>
       </c>
       <c r="D192">
-        <v>12.69</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="E192" t="s">
         <v>13</v>
@@ -6948,10 +6950,10 @@
         <v>19</v>
       </c>
       <c r="C193">
-        <v>8.0299999999999994</v>
+        <v>6.73</v>
       </c>
       <c r="D193">
-        <v>13.52</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="E193" t="s">
         <v>9</v>
@@ -6963,7 +6965,7 @@
         <v>10</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
@@ -6974,10 +6976,10 @@
         <v>12</v>
       </c>
       <c r="C194">
-        <v>2.02</v>
+        <v>1.54</v>
       </c>
       <c r="D194">
-        <v>4.13</v>
+        <v>3.58</v>
       </c>
       <c r="E194" t="s">
         <v>13</v>
@@ -7000,16 +7002,16 @@
         <v>12</v>
       </c>
       <c r="C195">
-        <v>1.85</v>
+        <v>2.58</v>
       </c>
       <c r="D195">
-        <v>2.85</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="E195" t="s">
         <v>13</v>
       </c>
       <c r="F195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G195" t="s">
         <v>14</v>
@@ -7026,10 +7028,10 @@
         <v>19</v>
       </c>
       <c r="C196">
-        <v>3.92</v>
+        <v>7.47</v>
       </c>
       <c r="D196">
-        <v>7.2</v>
+        <v>6.06</v>
       </c>
       <c r="E196" t="s">
         <v>13</v>
@@ -7052,10 +7054,10 @@
         <v>19</v>
       </c>
       <c r="C197">
-        <v>3.79</v>
+        <v>4.62</v>
       </c>
       <c r="D197">
-        <v>6.38</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="E197" t="s">
         <v>13</v>
@@ -7067,7 +7069,7 @@
         <v>14</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
@@ -7078,10 +7080,10 @@
         <v>8</v>
       </c>
       <c r="C198">
-        <v>2.91</v>
+        <v>9.7799999999999994</v>
       </c>
       <c r="D198">
-        <v>5.25</v>
+        <v>13.49</v>
       </c>
       <c r="E198" t="s">
         <v>9</v>
@@ -7104,10 +7106,10 @@
         <v>12</v>
       </c>
       <c r="C199">
-        <v>0.79</v>
+        <v>1.45</v>
       </c>
       <c r="D199">
-        <v>1.71</v>
+        <v>3.22</v>
       </c>
       <c r="E199" t="s">
         <v>9</v>
@@ -7130,10 +7132,10 @@
         <v>19</v>
       </c>
       <c r="C200">
-        <v>8.52</v>
+        <v>6.53</v>
       </c>
       <c r="D200">
-        <v>20.65</v>
+        <v>6.42</v>
       </c>
       <c r="E200" t="s">
         <v>13</v>
@@ -7156,10 +7158,10 @@
         <v>19</v>
       </c>
       <c r="C201">
-        <v>5.21</v>
+        <v>6.51</v>
       </c>
       <c r="D201">
-        <v>11.56</v>
+        <v>6.19</v>
       </c>
       <c r="E201" t="s">
         <v>13</v>
@@ -7182,10 +7184,10 @@
         <v>8</v>
       </c>
       <c r="C202">
-        <v>6.74</v>
+        <v>9.93</v>
       </c>
       <c r="D202">
-        <v>11.03</v>
+        <v>10.24</v>
       </c>
       <c r="E202" t="s">
         <v>13</v>
@@ -7197,7 +7199,7 @@
         <v>10</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
@@ -7208,10 +7210,10 @@
         <v>8</v>
       </c>
       <c r="C203">
-        <v>2.97</v>
+        <v>11.57</v>
       </c>
       <c r="D203">
-        <v>5.79</v>
+        <v>13.02</v>
       </c>
       <c r="E203" t="s">
         <v>9</v>
@@ -7223,7 +7225,7 @@
         <v>14</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
@@ -7234,10 +7236,10 @@
         <v>12</v>
       </c>
       <c r="C204">
-        <v>7.26</v>
+        <v>2.83</v>
       </c>
       <c r="D204">
-        <v>14.1</v>
+        <v>4.04</v>
       </c>
       <c r="E204" t="s">
         <v>9</v>
@@ -7260,10 +7262,10 @@
         <v>8</v>
       </c>
       <c r="C205">
-        <v>6.86</v>
+        <v>10.94</v>
       </c>
       <c r="D205">
-        <v>16.71</v>
+        <v>12.93</v>
       </c>
       <c r="E205" t="s">
         <v>13</v>
@@ -7275,7 +7277,7 @@
         <v>10</v>
       </c>
       <c r="H205">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
@@ -7286,10 +7288,10 @@
         <v>8</v>
       </c>
       <c r="C206">
-        <v>3.98</v>
+        <v>10.89</v>
       </c>
       <c r="D206">
-        <v>9.1</v>
+        <v>11.15</v>
       </c>
       <c r="E206" t="s">
         <v>13</v>
@@ -7301,7 +7303,7 @@
         <v>10</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
@@ -7312,10 +7314,10 @@
         <v>19</v>
       </c>
       <c r="C207">
-        <v>3.42</v>
+        <v>5.72</v>
       </c>
       <c r="D207">
-        <v>7.46</v>
+        <v>7.13</v>
       </c>
       <c r="E207" t="s">
         <v>13</v>
@@ -7338,10 +7340,10 @@
         <v>8</v>
       </c>
       <c r="C208">
-        <v>4.58</v>
+        <v>13.13</v>
       </c>
       <c r="D208">
-        <v>7.09</v>
+        <v>9.99</v>
       </c>
       <c r="E208" t="s">
         <v>9</v>
@@ -7364,22 +7366,22 @@
         <v>12</v>
       </c>
       <c r="C209">
-        <v>1.17</v>
+        <v>1.96</v>
       </c>
       <c r="D209">
-        <v>2.77</v>
+        <v>4.46</v>
       </c>
       <c r="E209" t="s">
         <v>13</v>
       </c>
       <c r="F209">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G209" t="s">
         <v>14</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
@@ -7390,10 +7392,10 @@
         <v>19</v>
       </c>
       <c r="C210">
-        <v>9.7799999999999994</v>
+        <v>7.77</v>
       </c>
       <c r="D210">
-        <v>17.66</v>
+        <v>5.96</v>
       </c>
       <c r="E210" t="s">
         <v>13</v>
@@ -7416,10 +7418,10 @@
         <v>8</v>
       </c>
       <c r="C211">
-        <v>5.14</v>
+        <v>9.84</v>
       </c>
       <c r="D211">
-        <v>11.05</v>
+        <v>10.74</v>
       </c>
       <c r="E211" t="s">
         <v>13</v>
@@ -7431,7 +7433,7 @@
         <v>14</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
@@ -7442,10 +7444,10 @@
         <v>19</v>
       </c>
       <c r="C212">
-        <v>4.0599999999999996</v>
+        <v>5.18</v>
       </c>
       <c r="D212">
-        <v>8.68</v>
+        <v>7.58</v>
       </c>
       <c r="E212" t="s">
         <v>13</v>
@@ -7457,7 +7459,7 @@
         <v>10</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
@@ -7468,10 +7470,10 @@
         <v>19</v>
       </c>
       <c r="C213">
-        <v>0.64</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="D213">
-        <v>1.1200000000000001</v>
+        <v>9.43</v>
       </c>
       <c r="E213" t="s">
         <v>13</v>
@@ -7483,7 +7485,7 @@
         <v>10</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
@@ -7494,10 +7496,10 @@
         <v>19</v>
       </c>
       <c r="C214">
-        <v>4.7</v>
+        <v>7.89</v>
       </c>
       <c r="D214">
-        <v>8.4499999999999993</v>
+        <v>5.6</v>
       </c>
       <c r="E214" t="s">
         <v>13</v>
@@ -7520,10 +7522,10 @@
         <v>8</v>
       </c>
       <c r="C215">
-        <v>3.06</v>
+        <v>11.09</v>
       </c>
       <c r="D215">
-        <v>5.94</v>
+        <v>12.77</v>
       </c>
       <c r="E215" t="s">
         <v>9</v>
@@ -7546,22 +7548,22 @@
         <v>12</v>
       </c>
       <c r="C216">
-        <v>5.74</v>
+        <v>1.61</v>
       </c>
       <c r="D216">
-        <v>11</v>
+        <v>3.23</v>
       </c>
       <c r="E216" t="s">
         <v>9</v>
       </c>
       <c r="F216">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G216" t="s">
         <v>10</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
@@ -7572,10 +7574,10 @@
         <v>8</v>
       </c>
       <c r="C217">
-        <v>2.25</v>
+        <v>14.2</v>
       </c>
       <c r="D217">
-        <v>4.49</v>
+        <v>10.37</v>
       </c>
       <c r="E217" t="s">
         <v>13</v>
@@ -7587,7 +7589,7 @@
         <v>10</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
@@ -7598,10 +7600,10 @@
         <v>19</v>
       </c>
       <c r="C218">
-        <v>2.89</v>
+        <v>7.98</v>
       </c>
       <c r="D218">
-        <v>5.72</v>
+        <v>5.47</v>
       </c>
       <c r="E218" t="s">
         <v>13</v>
@@ -7624,10 +7626,10 @@
         <v>8</v>
       </c>
       <c r="C219">
-        <v>1.73</v>
+        <v>13.08</v>
       </c>
       <c r="D219">
-        <v>4.0599999999999996</v>
+        <v>13.46</v>
       </c>
       <c r="E219" t="s">
         <v>9</v>
@@ -7639,7 +7641,7 @@
         <v>10</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
@@ -7650,10 +7652,10 @@
         <v>12</v>
       </c>
       <c r="C220">
-        <v>6.76</v>
+        <v>2</v>
       </c>
       <c r="D220">
-        <v>12.63</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="E220" t="s">
         <v>9</v>
@@ -7676,10 +7678,10 @@
         <v>8</v>
       </c>
       <c r="C221">
-        <v>9.27</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="D221">
-        <v>21.07</v>
+        <v>13.99</v>
       </c>
       <c r="E221" t="s">
         <v>9</v>
@@ -7702,10 +7704,10 @@
         <v>8</v>
       </c>
       <c r="C222">
-        <v>5.62</v>
+        <v>10.97</v>
       </c>
       <c r="D222">
-        <v>11.72</v>
+        <v>12.8</v>
       </c>
       <c r="E222" t="s">
         <v>9</v>
@@ -7728,10 +7730,10 @@
         <v>12</v>
       </c>
       <c r="C223">
-        <v>3.7</v>
+        <v>2.37</v>
       </c>
       <c r="D223">
-        <v>7.14</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="E223" t="s">
         <v>13</v>
@@ -7754,10 +7756,10 @@
         <v>8</v>
       </c>
       <c r="C224">
-        <v>4.46</v>
+        <v>14</v>
       </c>
       <c r="D224">
-        <v>7.93</v>
+        <v>12.95</v>
       </c>
       <c r="E224" t="s">
         <v>13</v>
@@ -7769,7 +7771,7 @@
         <v>10</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
@@ -7780,10 +7782,10 @@
         <v>19</v>
       </c>
       <c r="C225">
-        <v>7.61</v>
+        <v>7</v>
       </c>
       <c r="D225">
-        <v>17.48</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="E225" t="s">
         <v>9</v>
@@ -7795,7 +7797,7 @@
         <v>10</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
@@ -7806,10 +7808,10 @@
         <v>8</v>
       </c>
       <c r="C226">
-        <v>6.96</v>
+        <v>14.46</v>
       </c>
       <c r="D226">
-        <v>13.15</v>
+        <v>12.52</v>
       </c>
       <c r="E226" t="s">
         <v>13</v>
@@ -7832,10 +7834,10 @@
         <v>19</v>
       </c>
       <c r="C227">
-        <v>5.59</v>
+        <v>6.25</v>
       </c>
       <c r="D227">
-        <v>8.99</v>
+        <v>7.84</v>
       </c>
       <c r="E227" t="s">
         <v>13</v>
@@ -7858,10 +7860,10 @@
         <v>8</v>
       </c>
       <c r="C228">
-        <v>8.02</v>
+        <v>10.11</v>
       </c>
       <c r="D228">
-        <v>16.03</v>
+        <v>10.78</v>
       </c>
       <c r="E228" t="s">
         <v>9</v>
@@ -7873,7 +7875,7 @@
         <v>10</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
@@ -7884,10 +7886,10 @@
         <v>12</v>
       </c>
       <c r="C229">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="D229">
-        <v>4.0999999999999996</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="E229" t="s">
         <v>9</v>
@@ -7910,10 +7912,10 @@
         <v>8</v>
       </c>
       <c r="C230">
-        <v>3.93</v>
+        <v>10.24</v>
       </c>
       <c r="D230">
-        <v>9.1</v>
+        <v>11.81</v>
       </c>
       <c r="E230" t="s">
         <v>9</v>
@@ -7936,16 +7938,16 @@
         <v>12</v>
       </c>
       <c r="C231">
-        <v>9.94</v>
+        <v>2.73</v>
       </c>
       <c r="D231">
-        <v>19.2</v>
+        <v>3.13</v>
       </c>
       <c r="E231" t="s">
         <v>13</v>
       </c>
       <c r="F231">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G231" t="s">
         <v>10</v>
@@ -7962,16 +7964,16 @@
         <v>12</v>
       </c>
       <c r="C232">
-        <v>0.86</v>
+        <v>2.68</v>
       </c>
       <c r="D232">
-        <v>1.45</v>
+        <v>4.38</v>
       </c>
       <c r="E232" t="s">
         <v>13</v>
       </c>
       <c r="F232">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G232" t="s">
         <v>10</v>
@@ -7988,16 +7990,16 @@
         <v>12</v>
       </c>
       <c r="C233">
-        <v>9.39</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="D233">
-        <v>18.95</v>
+        <v>3.57</v>
       </c>
       <c r="E233" t="s">
         <v>13</v>
       </c>
       <c r="F233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G233" t="s">
         <v>14</v>
@@ -8014,10 +8016,10 @@
         <v>19</v>
       </c>
       <c r="C234">
-        <v>5.62</v>
+        <v>6.55</v>
       </c>
       <c r="D234">
-        <v>9.09</v>
+        <v>6.46</v>
       </c>
       <c r="E234" t="s">
         <v>13</v>
@@ -8029,7 +8031,7 @@
         <v>10</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
@@ -8040,22 +8042,22 @@
         <v>12</v>
       </c>
       <c r="C235">
-        <v>9.76</v>
+        <v>2.16</v>
       </c>
       <c r="D235">
-        <v>19.32</v>
+        <v>3.94</v>
       </c>
       <c r="E235" t="s">
         <v>13</v>
       </c>
       <c r="F235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G235" t="s">
         <v>14</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
@@ -8066,10 +8068,10 @@
         <v>19</v>
       </c>
       <c r="C236">
-        <v>9.49</v>
+        <v>3.75</v>
       </c>
       <c r="D236">
-        <v>16.760000000000002</v>
+        <v>6.75</v>
       </c>
       <c r="E236" t="s">
         <v>13</v>
@@ -8081,7 +8083,7 @@
         <v>10</v>
       </c>
       <c r="H236">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
@@ -8092,10 +8094,10 @@
         <v>19</v>
       </c>
       <c r="C237">
-        <v>1.49</v>
+        <v>5.97</v>
       </c>
       <c r="D237">
-        <v>2.61</v>
+        <v>8.44</v>
       </c>
       <c r="E237" t="s">
         <v>13</v>
@@ -8118,10 +8120,10 @@
         <v>8</v>
       </c>
       <c r="C238">
-        <v>7.13</v>
+        <v>10.73</v>
       </c>
       <c r="D238">
-        <v>15.61</v>
+        <v>12.59</v>
       </c>
       <c r="E238" t="s">
         <v>13</v>
@@ -8133,7 +8135,7 @@
         <v>14</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
@@ -8144,10 +8146,10 @@
         <v>8</v>
       </c>
       <c r="C239">
-        <v>2.44</v>
+        <v>14.41</v>
       </c>
       <c r="D239">
-        <v>4.71</v>
+        <v>14.1</v>
       </c>
       <c r="E239" t="s">
         <v>13</v>
@@ -8159,7 +8161,7 @@
         <v>10</v>
       </c>
       <c r="H239">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
@@ -8170,10 +8172,10 @@
         <v>12</v>
       </c>
       <c r="C240">
-        <v>7.73</v>
+        <v>2.87</v>
       </c>
       <c r="D240">
-        <v>18.829999999999998</v>
+        <v>3.61</v>
       </c>
       <c r="E240" t="s">
         <v>9</v>
@@ -8196,10 +8198,10 @@
         <v>8</v>
       </c>
       <c r="C241">
-        <v>9.65</v>
+        <v>9.52</v>
       </c>
       <c r="D241">
-        <v>16.05</v>
+        <v>13.9</v>
       </c>
       <c r="E241" t="s">
         <v>13</v>
@@ -8222,10 +8224,10 @@
         <v>12</v>
       </c>
       <c r="C242">
-        <v>8.27</v>
+        <v>1.8</v>
       </c>
       <c r="D242">
-        <v>13.65</v>
+        <v>4.22</v>
       </c>
       <c r="E242" t="s">
         <v>13</v>
@@ -8248,10 +8250,10 @@
         <v>12</v>
       </c>
       <c r="C243">
-        <v>6.15</v>
+        <v>1.46</v>
       </c>
       <c r="D243">
-        <v>11.67</v>
+        <v>3.75</v>
       </c>
       <c r="E243" t="s">
         <v>13</v>
@@ -8263,7 +8265,7 @@
         <v>10</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
@@ -8274,10 +8276,10 @@
         <v>19</v>
       </c>
       <c r="C244">
-        <v>5.55</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D244">
-        <v>10.76</v>
+        <v>6.37</v>
       </c>
       <c r="E244" t="s">
         <v>9</v>
@@ -8300,10 +8302,10 @@
         <v>19</v>
       </c>
       <c r="C245">
-        <v>6.08</v>
+        <v>4.72</v>
       </c>
       <c r="D245">
-        <v>11.96</v>
+        <v>5.65</v>
       </c>
       <c r="E245" t="s">
         <v>13</v>
@@ -8326,10 +8328,10 @@
         <v>19</v>
       </c>
       <c r="C246">
-        <v>5.23</v>
+        <v>4.28</v>
       </c>
       <c r="D246">
-        <v>9.1300000000000008</v>
+        <v>8.9</v>
       </c>
       <c r="E246" t="s">
         <v>13</v>
@@ -8341,7 +8343,7 @@
         <v>10</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
@@ -8352,10 +8354,10 @@
         <v>8</v>
       </c>
       <c r="C247">
-        <v>5.74</v>
+        <v>11.29</v>
       </c>
       <c r="D247">
-        <v>14.28</v>
+        <v>11.97</v>
       </c>
       <c r="E247" t="s">
         <v>13</v>
@@ -8378,10 +8380,10 @@
         <v>12</v>
       </c>
       <c r="C248">
-        <v>8.34</v>
+        <v>2.87</v>
       </c>
       <c r="D248">
-        <v>13.12</v>
+        <v>3.63</v>
       </c>
       <c r="E248" t="s">
         <v>9</v>
@@ -8404,10 +8406,10 @@
         <v>8</v>
       </c>
       <c r="C249">
-        <v>7.12</v>
+        <v>14.22</v>
       </c>
       <c r="D249">
-        <v>14.26</v>
+        <v>14.36</v>
       </c>
       <c r="E249" t="s">
         <v>9</v>
@@ -8419,7 +8421,7 @@
         <v>14</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
@@ -8430,10 +8432,10 @@
         <v>19</v>
       </c>
       <c r="C250">
-        <v>7.39</v>
+        <v>8.23</v>
       </c>
       <c r="D250">
-        <v>16.54</v>
+        <v>5.38</v>
       </c>
       <c r="E250" t="s">
         <v>13</v>
@@ -8445,7 +8447,7 @@
         <v>10</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
@@ -8456,10 +8458,10 @@
         <v>12</v>
       </c>
       <c r="C251">
-        <v>7.29</v>
+        <v>1.71</v>
       </c>
       <c r="D251">
-        <v>14.7</v>
+        <v>3.66</v>
       </c>
       <c r="E251" t="s">
         <v>9</v>
@@ -8482,10 +8484,10 @@
         <v>19</v>
       </c>
       <c r="C252">
-        <v>6.24</v>
+        <v>4.91</v>
       </c>
       <c r="D252">
-        <v>11.45</v>
+        <v>5.6</v>
       </c>
       <c r="E252" t="s">
         <v>13</v>
@@ -8508,10 +8510,10 @@
         <v>19</v>
       </c>
       <c r="C253">
-        <v>8.4</v>
+        <v>7.06</v>
       </c>
       <c r="D253">
-        <v>20.74</v>
+        <v>5.84</v>
       </c>
       <c r="E253" t="s">
         <v>9</v>
@@ -8534,10 +8536,10 @@
         <v>19</v>
       </c>
       <c r="C254">
-        <v>7.68</v>
+        <v>6.36</v>
       </c>
       <c r="D254">
-        <v>12.5</v>
+        <v>7.46</v>
       </c>
       <c r="E254" t="s">
         <v>13</v>
@@ -8560,10 +8562,10 @@
         <v>12</v>
       </c>
       <c r="C255">
-        <v>4.29</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="D255">
-        <v>7.76</v>
+        <v>3.78</v>
       </c>
       <c r="E255" t="s">
         <v>9</v>
@@ -8575,7 +8577,7 @@
         <v>14</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
@@ -8586,10 +8588,10 @@
         <v>12</v>
       </c>
       <c r="C256">
-        <v>9.84</v>
+        <v>1.24</v>
       </c>
       <c r="D256">
-        <v>22.38</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="E256" t="s">
         <v>9</v>
@@ -8612,10 +8614,10 @@
         <v>12</v>
       </c>
       <c r="C257">
-        <v>3.24</v>
+        <v>1.33</v>
       </c>
       <c r="D257">
-        <v>6.81</v>
+        <v>3.58</v>
       </c>
       <c r="E257" t="s">
         <v>13</v>
@@ -8638,16 +8640,16 @@
         <v>12</v>
       </c>
       <c r="C258">
-        <v>6.11</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="D258">
-        <v>9.64</v>
+        <v>3.48</v>
       </c>
       <c r="E258" t="s">
         <v>13</v>
       </c>
       <c r="F258">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G258" t="s">
         <v>10</v>
@@ -8664,10 +8666,10 @@
         <v>8</v>
       </c>
       <c r="C259">
-        <v>1.66</v>
+        <v>13.36</v>
       </c>
       <c r="D259">
-        <v>3.49</v>
+        <v>14.18</v>
       </c>
       <c r="E259" t="s">
         <v>13</v>
@@ -8679,7 +8681,7 @@
         <v>10</v>
       </c>
       <c r="H259">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
@@ -8690,10 +8692,10 @@
         <v>8</v>
       </c>
       <c r="C260">
-        <v>1.58</v>
+        <v>9.0399999999999991</v>
       </c>
       <c r="D260">
-        <v>2.73</v>
+        <v>10.62</v>
       </c>
       <c r="E260" t="s">
         <v>13</v>
@@ -8716,10 +8718,10 @@
         <v>8</v>
       </c>
       <c r="C261">
-        <v>0.52</v>
+        <v>11.38</v>
       </c>
       <c r="D261">
-        <v>0.89</v>
+        <v>11.37</v>
       </c>
       <c r="E261" t="s">
         <v>13</v>
@@ -8742,10 +8744,10 @@
         <v>8</v>
       </c>
       <c r="C262">
-        <v>4.59</v>
+        <v>9.7899999999999991</v>
       </c>
       <c r="D262">
-        <v>10.49</v>
+        <v>10</v>
       </c>
       <c r="E262" t="s">
         <v>13</v>
@@ -8768,10 +8770,10 @@
         <v>8</v>
       </c>
       <c r="C263">
-        <v>6.91</v>
+        <v>11.45</v>
       </c>
       <c r="D263">
-        <v>15.09</v>
+        <v>13.67</v>
       </c>
       <c r="E263" t="s">
         <v>13</v>
@@ -8783,7 +8785,7 @@
         <v>10</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.3">
@@ -8794,10 +8796,10 @@
         <v>8</v>
       </c>
       <c r="C264">
-        <v>8.1</v>
+        <v>12.51</v>
       </c>
       <c r="D264">
-        <v>12.43</v>
+        <v>13.75</v>
       </c>
       <c r="E264" t="s">
         <v>9</v>
@@ -8809,7 +8811,7 @@
         <v>10</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.3">
@@ -8820,10 +8822,10 @@
         <v>8</v>
       </c>
       <c r="C265">
-        <v>3.22</v>
+        <v>9.76</v>
       </c>
       <c r="D265">
-        <v>5.88</v>
+        <v>12.61</v>
       </c>
       <c r="E265" t="s">
         <v>13</v>
@@ -8846,10 +8848,10 @@
         <v>8</v>
       </c>
       <c r="C266">
-        <v>7.75</v>
+        <v>10.7</v>
       </c>
       <c r="D266">
-        <v>18.22</v>
+        <v>14.11</v>
       </c>
       <c r="E266" t="s">
         <v>9</v>
@@ -8861,7 +8863,7 @@
         <v>10</v>
       </c>
       <c r="H266">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
@@ -8872,10 +8874,10 @@
         <v>19</v>
       </c>
       <c r="C267">
-        <v>2.23</v>
+        <v>4.17</v>
       </c>
       <c r="D267">
-        <v>5.56</v>
+        <v>7.59</v>
       </c>
       <c r="E267" t="s">
         <v>13</v>
@@ -8898,10 +8900,10 @@
         <v>19</v>
       </c>
       <c r="C268">
-        <v>1.61</v>
+        <v>6.65</v>
       </c>
       <c r="D268">
-        <v>3.39</v>
+        <v>5.5</v>
       </c>
       <c r="E268" t="s">
         <v>13</v>
@@ -8924,10 +8926,10 @@
         <v>19</v>
       </c>
       <c r="C269">
-        <v>3.75</v>
+        <v>3.76</v>
       </c>
       <c r="D269">
-        <v>7.63</v>
+        <v>7.55</v>
       </c>
       <c r="E269" t="s">
         <v>13</v>
@@ -8950,10 +8952,10 @@
         <v>8</v>
       </c>
       <c r="C270">
-        <v>3.63</v>
+        <v>12.43</v>
       </c>
       <c r="D270">
-        <v>8.27</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="E270" t="s">
         <v>9</v>
@@ -8976,10 +8978,10 @@
         <v>8</v>
       </c>
       <c r="C271">
-        <v>7.85</v>
+        <v>13.81</v>
       </c>
       <c r="D271">
-        <v>14.57</v>
+        <v>11</v>
       </c>
       <c r="E271" t="s">
         <v>13</v>
@@ -8991,7 +8993,7 @@
         <v>10</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
@@ -9002,10 +9004,10 @@
         <v>8</v>
       </c>
       <c r="C272">
-        <v>8.61</v>
+        <v>11.35</v>
       </c>
       <c r="D272">
-        <v>14.45</v>
+        <v>10.77</v>
       </c>
       <c r="E272" t="s">
         <v>9</v>
@@ -9028,10 +9030,10 @@
         <v>19</v>
       </c>
       <c r="C273">
-        <v>9.0299999999999994</v>
+        <v>7.56</v>
       </c>
       <c r="D273">
-        <v>17.260000000000002</v>
+        <v>5.83</v>
       </c>
       <c r="E273" t="s">
         <v>13</v>
@@ -9054,10 +9056,10 @@
         <v>12</v>
       </c>
       <c r="C274">
-        <v>2.2999999999999998</v>
+        <v>2.59</v>
       </c>
       <c r="D274">
-        <v>5.04</v>
+        <v>3.76</v>
       </c>
       <c r="E274" t="s">
         <v>13</v>
@@ -9080,10 +9082,10 @@
         <v>12</v>
       </c>
       <c r="C275">
-        <v>5.22</v>
+        <v>1.4</v>
       </c>
       <c r="D275">
-        <v>10.54</v>
+        <v>4.75</v>
       </c>
       <c r="E275" t="s">
         <v>9</v>
@@ -9095,7 +9097,7 @@
         <v>10</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.3">
@@ -9106,10 +9108,10 @@
         <v>19</v>
       </c>
       <c r="C276">
-        <v>9.84</v>
+        <v>6.61</v>
       </c>
       <c r="D276">
-        <v>23.57</v>
+        <v>7.21</v>
       </c>
       <c r="E276" t="s">
         <v>13</v>
@@ -9132,10 +9134,10 @@
         <v>8</v>
       </c>
       <c r="C277">
-        <v>4.43</v>
+        <v>14.07</v>
       </c>
       <c r="D277">
-        <v>9.16</v>
+        <v>9.61</v>
       </c>
       <c r="E277" t="s">
         <v>13</v>
@@ -9158,10 +9160,10 @@
         <v>19</v>
       </c>
       <c r="C278">
-        <v>3.31</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="D278">
-        <v>5.22</v>
+        <v>8.9700000000000006</v>
       </c>
       <c r="E278" t="s">
         <v>13</v>
@@ -9184,22 +9186,22 @@
         <v>12</v>
       </c>
       <c r="C279">
-        <v>6.69</v>
+        <v>2.16</v>
       </c>
       <c r="D279">
-        <v>10.79</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="E279" t="s">
         <v>13</v>
       </c>
       <c r="F279">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G279" t="s">
         <v>10</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.3">
@@ -9210,10 +9212,10 @@
         <v>19</v>
       </c>
       <c r="C280">
-        <v>9.2899999999999991</v>
+        <v>3.6</v>
       </c>
       <c r="D280">
-        <v>14.52</v>
+        <v>5.94</v>
       </c>
       <c r="E280" t="s">
         <v>9</v>
@@ -9236,10 +9238,10 @@
         <v>19</v>
       </c>
       <c r="C281">
-        <v>7.24</v>
+        <v>7.03</v>
       </c>
       <c r="D281">
-        <v>16.149999999999999</v>
+        <v>5.59</v>
       </c>
       <c r="E281" t="s">
         <v>9</v>
@@ -9251,7 +9253,7 @@
         <v>10</v>
       </c>
       <c r="H281">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.3">
@@ -9262,10 +9264,10 @@
         <v>19</v>
       </c>
       <c r="C282">
-        <v>8.6999999999999993</v>
+        <v>4.58</v>
       </c>
       <c r="D282">
-        <v>18.53</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="E282" t="s">
         <v>9</v>
@@ -9277,7 +9279,7 @@
         <v>14</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.3">
@@ -9288,10 +9290,10 @@
         <v>19</v>
       </c>
       <c r="C283">
-        <v>8.9</v>
+        <v>7.72</v>
       </c>
       <c r="D283">
-        <v>15.87</v>
+        <v>8.56</v>
       </c>
       <c r="E283" t="s">
         <v>9</v>
@@ -9303,7 +9305,7 @@
         <v>14</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.3">
@@ -9314,10 +9316,10 @@
         <v>8</v>
       </c>
       <c r="C284">
-        <v>3.22</v>
+        <v>14.16</v>
       </c>
       <c r="D284">
-        <v>7.81</v>
+        <v>10.6</v>
       </c>
       <c r="E284" t="s">
         <v>13</v>
@@ -9340,10 +9342,10 @@
         <v>19</v>
       </c>
       <c r="C285">
-        <v>9.4700000000000006</v>
+        <v>4.2</v>
       </c>
       <c r="D285">
-        <v>14.7</v>
+        <v>7.97</v>
       </c>
       <c r="E285" t="s">
         <v>13</v>
@@ -9355,7 +9357,7 @@
         <v>10</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.3">
@@ -9366,10 +9368,10 @@
         <v>8</v>
       </c>
       <c r="C286">
-        <v>2.98</v>
+        <v>9.31</v>
       </c>
       <c r="D286">
-        <v>7.42</v>
+        <v>11.61</v>
       </c>
       <c r="E286" t="s">
         <v>9</v>
@@ -9392,16 +9394,16 @@
         <v>12</v>
       </c>
       <c r="C287">
-        <v>6.41</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="D287">
-        <v>14.42</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="E287" t="s">
         <v>13</v>
       </c>
       <c r="F287">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G287" t="s">
         <v>10</v>
@@ -9418,10 +9420,10 @@
         <v>8</v>
       </c>
       <c r="C288">
-        <v>7.44</v>
+        <v>11.28</v>
       </c>
       <c r="D288">
-        <v>16.309999999999999</v>
+        <v>11.89</v>
       </c>
       <c r="E288" t="s">
         <v>13</v>
@@ -9444,10 +9446,10 @@
         <v>19</v>
       </c>
       <c r="C289">
-        <v>9.14</v>
+        <v>7.48</v>
       </c>
       <c r="D289">
-        <v>15.97</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E289" t="s">
         <v>9</v>
@@ -9470,10 +9472,10 @@
         <v>19</v>
       </c>
       <c r="C290">
-        <v>3.03</v>
+        <v>4.2</v>
       </c>
       <c r="D290">
-        <v>4.8</v>
+        <v>6.4</v>
       </c>
       <c r="E290" t="s">
         <v>13</v>
@@ -9485,7 +9487,7 @@
         <v>10</v>
       </c>
       <c r="H290">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.3">
@@ -9496,10 +9498,10 @@
         <v>8</v>
       </c>
       <c r="C291">
-        <v>3.32</v>
+        <v>13.63</v>
       </c>
       <c r="D291">
-        <v>5.31</v>
+        <v>9.91</v>
       </c>
       <c r="E291" t="s">
         <v>9</v>
@@ -9522,10 +9524,10 @@
         <v>12</v>
       </c>
       <c r="C292">
-        <v>0.92</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="D292">
-        <v>1.43</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="E292" t="s">
         <v>9</v>
@@ -9548,10 +9550,10 @@
         <v>8</v>
       </c>
       <c r="C293">
-        <v>7.83</v>
+        <v>13.49</v>
       </c>
       <c r="D293">
-        <v>14.15</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="E293" t="s">
         <v>13</v>
@@ -9563,7 +9565,7 @@
         <v>14</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.3">
@@ -9574,10 +9576,10 @@
         <v>8</v>
       </c>
       <c r="C294">
-        <v>5.9</v>
+        <v>12.94</v>
       </c>
       <c r="D294">
-        <v>11.8</v>
+        <v>11.74</v>
       </c>
       <c r="E294" t="s">
         <v>9</v>
@@ -9600,10 +9602,10 @@
         <v>8</v>
       </c>
       <c r="C295">
-        <v>6.35</v>
+        <v>14.48</v>
       </c>
       <c r="D295">
-        <v>11.49</v>
+        <v>11.92</v>
       </c>
       <c r="E295" t="s">
         <v>13</v>
@@ -9626,10 +9628,10 @@
         <v>19</v>
       </c>
       <c r="C296">
-        <v>7.25</v>
+        <v>7.69</v>
       </c>
       <c r="D296">
-        <v>15.86</v>
+        <v>5.89</v>
       </c>
       <c r="E296" t="s">
         <v>13</v>
@@ -9641,7 +9643,7 @@
         <v>10</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.3">
@@ -9652,10 +9654,10 @@
         <v>12</v>
       </c>
       <c r="C297">
-        <v>8.2799999999999994</v>
+        <v>2.19</v>
       </c>
       <c r="D297">
-        <v>13.53</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="E297" t="s">
         <v>9</v>
@@ -9667,7 +9669,7 @@
         <v>14</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.3">
@@ -9678,10 +9680,10 @@
         <v>12</v>
       </c>
       <c r="C298">
-        <v>7.87</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="D298">
-        <v>17.13</v>
+        <v>3.84</v>
       </c>
       <c r="E298" t="s">
         <v>13</v>
@@ -9704,10 +9706,10 @@
         <v>12</v>
       </c>
       <c r="C299">
-        <v>9.0399999999999991</v>
+        <v>2.09</v>
       </c>
       <c r="D299">
-        <v>21.5</v>
+        <v>4.51</v>
       </c>
       <c r="E299" t="s">
         <v>13</v>
@@ -9730,10 +9732,10 @@
         <v>12</v>
       </c>
       <c r="C300">
-        <v>7.96</v>
+        <v>2.79</v>
       </c>
       <c r="D300">
-        <v>18.100000000000001</v>
+        <v>3.93</v>
       </c>
       <c r="E300" t="s">
         <v>9</v>
@@ -9745,7 +9747,7 @@
         <v>10</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.3">
@@ -9756,10 +9758,10 @@
         <v>8</v>
       </c>
       <c r="C301">
-        <v>8.41</v>
+        <v>13.27</v>
       </c>
       <c r="D301">
-        <v>13.78</v>
+        <v>13.74</v>
       </c>
       <c r="E301" t="s">
         <v>13</v>
@@ -9771,7 +9773,7 @@
         <v>14</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.3">
@@ -9782,10 +9784,10 @@
         <v>19</v>
       </c>
       <c r="C302">
-        <v>6.87</v>
+        <v>3.54</v>
       </c>
       <c r="D302">
-        <v>15.63</v>
+        <v>7.46</v>
       </c>
       <c r="E302" t="s">
         <v>13</v>
@@ -9797,7 +9799,7 @@
         <v>10</v>
       </c>
       <c r="H302">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.3">
@@ -9808,10 +9810,10 @@
         <v>19</v>
       </c>
       <c r="C303">
-        <v>8.65</v>
+        <v>4.8</v>
       </c>
       <c r="D303">
-        <v>20.32</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="E303" t="s">
         <v>9</v>
@@ -9823,7 +9825,7 @@
         <v>10</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.3">
@@ -9834,10 +9836,10 @@
         <v>19</v>
       </c>
       <c r="C304">
-        <v>8.59</v>
+        <v>5.62</v>
       </c>
       <c r="D304">
-        <v>21.16</v>
+        <v>8.31</v>
       </c>
       <c r="E304" t="s">
         <v>9</v>
@@ -9860,10 +9862,10 @@
         <v>12</v>
       </c>
       <c r="C305">
-        <v>8.7200000000000006</v>
+        <v>2.31</v>
       </c>
       <c r="D305">
-        <v>21.15</v>
+        <v>3.88</v>
       </c>
       <c r="E305" t="s">
         <v>9</v>
@@ -9875,7 +9877,7 @@
         <v>10</v>
       </c>
       <c r="H305">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.3">
@@ -9886,10 +9888,10 @@
         <v>19</v>
       </c>
       <c r="C306">
-        <v>1.79</v>
+        <v>6.5</v>
       </c>
       <c r="D306">
-        <v>3.76</v>
+        <v>5.81</v>
       </c>
       <c r="E306" t="s">
         <v>9</v>
@@ -9912,10 +9914,10 @@
         <v>12</v>
       </c>
       <c r="C307">
-        <v>4.51</v>
+        <v>2.77</v>
       </c>
       <c r="D307">
-        <v>10.55</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="E307" t="s">
         <v>9</v>
@@ -9938,10 +9940,10 @@
         <v>8</v>
       </c>
       <c r="C308">
-        <v>1.43</v>
+        <v>11.14</v>
       </c>
       <c r="D308">
-        <v>3.02</v>
+        <v>11.96</v>
       </c>
       <c r="E308" t="s">
         <v>13</v>
@@ -9964,10 +9966,10 @@
         <v>8</v>
       </c>
       <c r="C309">
-        <v>0.7</v>
+        <v>12.02</v>
       </c>
       <c r="D309">
-        <v>1.26</v>
+        <v>11.7</v>
       </c>
       <c r="E309" t="s">
         <v>13</v>
@@ -9990,10 +9992,10 @@
         <v>12</v>
       </c>
       <c r="C310">
-        <v>4.5199999999999996</v>
+        <v>2.63</v>
       </c>
       <c r="D310">
-        <v>9.25</v>
+        <v>4.12</v>
       </c>
       <c r="E310" t="s">
         <v>13</v>
@@ -10016,10 +10018,10 @@
         <v>12</v>
       </c>
       <c r="C311">
-        <v>3.85</v>
+        <v>2.11</v>
       </c>
       <c r="D311">
-        <v>5.88</v>
+        <v>3.33</v>
       </c>
       <c r="E311" t="s">
         <v>9</v>
@@ -10042,10 +10044,10 @@
         <v>8</v>
       </c>
       <c r="C312">
-        <v>5.79</v>
+        <v>12.13</v>
       </c>
       <c r="D312">
-        <v>11.94</v>
+        <v>10.75</v>
       </c>
       <c r="E312" t="s">
         <v>13</v>
@@ -10068,10 +10070,10 @@
         <v>19</v>
       </c>
       <c r="C313">
-        <v>7.97</v>
+        <v>3.46</v>
       </c>
       <c r="D313">
-        <v>13.07</v>
+        <v>7.15</v>
       </c>
       <c r="E313" t="s">
         <v>13</v>
@@ -10094,22 +10096,22 @@
         <v>12</v>
       </c>
       <c r="C314">
-        <v>1.78</v>
+        <v>2.19</v>
       </c>
       <c r="D314">
-        <v>2.98</v>
+        <v>4.67</v>
       </c>
       <c r="E314" t="s">
         <v>13</v>
       </c>
       <c r="F314">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G314" t="s">
         <v>10</v>
       </c>
       <c r="H314">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.3">
@@ -10120,10 +10122,10 @@
         <v>8</v>
       </c>
       <c r="C315">
-        <v>3.57</v>
+        <v>9.59</v>
       </c>
       <c r="D315">
-        <v>5.44</v>
+        <v>14.36</v>
       </c>
       <c r="E315" t="s">
         <v>13</v>
@@ -10146,16 +10148,16 @@
         <v>12</v>
       </c>
       <c r="C316">
-        <v>9.91</v>
+        <v>2.64</v>
       </c>
       <c r="D316">
-        <v>15.84</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="E316" t="s">
         <v>13</v>
       </c>
       <c r="F316">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G316" t="s">
         <v>10</v>
@@ -10172,10 +10174,10 @@
         <v>12</v>
       </c>
       <c r="C317">
-        <v>6.46</v>
+        <v>1.52</v>
       </c>
       <c r="D317">
-        <v>13.21</v>
+        <v>3.26</v>
       </c>
       <c r="E317" t="s">
         <v>9</v>
@@ -10198,10 +10200,10 @@
         <v>19</v>
       </c>
       <c r="C318">
-        <v>3.36</v>
+        <v>6.77</v>
       </c>
       <c r="D318">
-        <v>5.6</v>
+        <v>6.71</v>
       </c>
       <c r="E318" t="s">
         <v>9</v>
@@ -10213,7 +10215,7 @@
         <v>14</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.3">
@@ -10224,10 +10226,10 @@
         <v>19</v>
       </c>
       <c r="C319">
-        <v>2.5099999999999998</v>
+        <v>7.13</v>
       </c>
       <c r="D319">
-        <v>4.87</v>
+        <v>5.55</v>
       </c>
       <c r="E319" t="s">
         <v>9</v>
@@ -10239,7 +10241,7 @@
         <v>10</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.3">
@@ -10250,10 +10252,10 @@
         <v>8</v>
       </c>
       <c r="C320">
-        <v>6.98</v>
+        <v>10.1</v>
       </c>
       <c r="D320">
-        <v>10.59</v>
+        <v>13.81</v>
       </c>
       <c r="E320" t="s">
         <v>9</v>
@@ -10265,7 +10267,7 @@
         <v>10</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.3">
@@ -10276,10 +10278,10 @@
         <v>12</v>
       </c>
       <c r="C321">
-        <v>5.31</v>
+        <v>2.27</v>
       </c>
       <c r="D321">
-        <v>11.88</v>
+        <v>3.1</v>
       </c>
       <c r="E321" t="s">
         <v>9</v>
@@ -10302,10 +10304,10 @@
         <v>8</v>
       </c>
       <c r="C322">
-        <v>2.91</v>
+        <v>11.7</v>
       </c>
       <c r="D322">
-        <v>7.04</v>
+        <v>12.14</v>
       </c>
       <c r="E322" t="s">
         <v>9</v>
@@ -10317,7 +10319,7 @@
         <v>10</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.3">
@@ -10328,10 +10330,10 @@
         <v>19</v>
       </c>
       <c r="C323">
-        <v>1.72</v>
+        <v>5.52</v>
       </c>
       <c r="D323">
-        <v>3.31</v>
+        <v>6.73</v>
       </c>
       <c r="E323" t="s">
         <v>13</v>
@@ -10343,7 +10345,7 @@
         <v>10</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.3">
@@ -10354,22 +10356,22 @@
         <v>12</v>
       </c>
       <c r="C324">
-        <v>5.53</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="D324">
-        <v>12.6</v>
+        <v>3.21</v>
       </c>
       <c r="E324" t="s">
         <v>13</v>
       </c>
       <c r="F324">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G324" t="s">
         <v>10</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.3">
@@ -10380,10 +10382,10 @@
         <v>19</v>
       </c>
       <c r="C325">
-        <v>3.68</v>
+        <v>5.84</v>
       </c>
       <c r="D325">
-        <v>6.91</v>
+        <v>5.84</v>
       </c>
       <c r="E325" t="s">
         <v>13</v>
@@ -10406,16 +10408,16 @@
         <v>12</v>
       </c>
       <c r="C326">
-        <v>0.9</v>
+        <v>2.68</v>
       </c>
       <c r="D326">
-        <v>1.61</v>
+        <v>3.98</v>
       </c>
       <c r="E326" t="s">
         <v>13</v>
       </c>
       <c r="F326">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G326" t="s">
         <v>14</v>
@@ -10432,10 +10434,10 @@
         <v>19</v>
       </c>
       <c r="C327">
-        <v>1.33</v>
+        <v>6.82</v>
       </c>
       <c r="D327">
-        <v>2.13</v>
+        <v>7.45</v>
       </c>
       <c r="E327" t="s">
         <v>13</v>
@@ -10447,7 +10449,7 @@
         <v>10</v>
       </c>
       <c r="H327">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.3">
@@ -10458,10 +10460,10 @@
         <v>12</v>
       </c>
       <c r="C328">
-        <v>6.63</v>
+        <v>2.06</v>
       </c>
       <c r="D328">
-        <v>11.79</v>
+        <v>3.32</v>
       </c>
       <c r="E328" t="s">
         <v>13</v>
@@ -10484,10 +10486,10 @@
         <v>8</v>
       </c>
       <c r="C329">
-        <v>3.48</v>
+        <v>9.75</v>
       </c>
       <c r="D329">
-        <v>5.58</v>
+        <v>10.55</v>
       </c>
       <c r="E329" t="s">
         <v>9</v>
@@ -10510,10 +10512,10 @@
         <v>19</v>
       </c>
       <c r="C330">
-        <v>2.52</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="D330">
-        <v>5.45</v>
+        <v>8.99</v>
       </c>
       <c r="E330" t="s">
         <v>9</v>
@@ -10536,16 +10538,16 @@
         <v>12</v>
       </c>
       <c r="C331">
-        <v>1.93</v>
+        <v>2.21</v>
       </c>
       <c r="D331">
-        <v>4.17</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="E331" t="s">
         <v>13</v>
       </c>
       <c r="F331">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G331" t="s">
         <v>10</v>
@@ -10562,10 +10564,10 @@
         <v>8</v>
       </c>
       <c r="C332">
-        <v>5.4</v>
+        <v>11.48</v>
       </c>
       <c r="D332">
-        <v>11.16</v>
+        <v>10.87</v>
       </c>
       <c r="E332" t="s">
         <v>13</v>
@@ -10588,10 +10590,10 @@
         <v>8</v>
       </c>
       <c r="C333">
-        <v>5.41</v>
+        <v>10.84</v>
       </c>
       <c r="D333">
-        <v>10.45</v>
+        <v>11.58</v>
       </c>
       <c r="E333" t="s">
         <v>13</v>
@@ -10614,10 +10616,10 @@
         <v>19</v>
       </c>
       <c r="C334">
-        <v>4.3600000000000003</v>
+        <v>6.27</v>
       </c>
       <c r="D334">
-        <v>9.64</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E334" t="s">
         <v>9</v>
@@ -10640,10 +10642,10 @@
         <v>12</v>
       </c>
       <c r="C335">
-        <v>3.42</v>
+        <v>2.61</v>
       </c>
       <c r="D335">
-        <v>5.55</v>
+        <v>3.81</v>
       </c>
       <c r="E335" t="s">
         <v>9</v>
@@ -10666,10 +10668,10 @@
         <v>8</v>
       </c>
       <c r="C336">
-        <v>1.79</v>
+        <v>9.81</v>
       </c>
       <c r="D336">
-        <v>4.3099999999999996</v>
+        <v>14.07</v>
       </c>
       <c r="E336" t="s">
         <v>9</v>
@@ -10692,10 +10694,10 @@
         <v>8</v>
       </c>
       <c r="C337">
-        <v>9.43</v>
+        <v>9.49</v>
       </c>
       <c r="D337">
-        <v>23.2</v>
+        <v>12.71</v>
       </c>
       <c r="E337" t="s">
         <v>9</v>
@@ -10718,10 +10720,10 @@
         <v>19</v>
       </c>
       <c r="C338">
-        <v>4.5599999999999996</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="D338">
-        <v>10.47</v>
+        <v>5.51</v>
       </c>
       <c r="E338" t="s">
         <v>13</v>
@@ -10744,10 +10746,10 @@
         <v>8</v>
       </c>
       <c r="C339">
-        <v>7.27</v>
+        <v>10.4</v>
       </c>
       <c r="D339">
-        <v>17.18</v>
+        <v>13.06</v>
       </c>
       <c r="E339" t="s">
         <v>9</v>
@@ -10759,7 +10761,7 @@
         <v>10</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.3">
@@ -10770,10 +10772,10 @@
         <v>8</v>
       </c>
       <c r="C340">
-        <v>1.44</v>
+        <v>9.1300000000000008</v>
       </c>
       <c r="D340">
-        <v>2.94</v>
+        <v>10.19</v>
       </c>
       <c r="E340" t="s">
         <v>9</v>
@@ -10796,10 +10798,10 @@
         <v>12</v>
       </c>
       <c r="C341">
-        <v>7.38</v>
+        <v>1.69</v>
       </c>
       <c r="D341">
-        <v>15.54</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="E341" t="s">
         <v>13</v>
@@ -10811,7 +10813,7 @@
         <v>10</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.3">
@@ -10822,10 +10824,10 @@
         <v>12</v>
       </c>
       <c r="C342">
-        <v>9.09</v>
+        <v>2.73</v>
       </c>
       <c r="D342">
-        <v>21.34</v>
+        <v>3.91</v>
       </c>
       <c r="E342" t="s">
         <v>9</v>
@@ -10837,7 +10839,7 @@
         <v>10</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.3">
@@ -10848,10 +10850,10 @@
         <v>8</v>
       </c>
       <c r="C343">
-        <v>1.83</v>
+        <v>13.37</v>
       </c>
       <c r="D343">
-        <v>3.99</v>
+        <v>11.28</v>
       </c>
       <c r="E343" t="s">
         <v>9</v>
@@ -10874,10 +10876,10 @@
         <v>12</v>
       </c>
       <c r="C344">
-        <v>6.49</v>
+        <v>1.38</v>
       </c>
       <c r="D344">
-        <v>14.31</v>
+        <v>3.53</v>
       </c>
       <c r="E344" t="s">
         <v>13</v>
@@ -10900,10 +10902,10 @@
         <v>19</v>
       </c>
       <c r="C345">
-        <v>6.06</v>
+        <v>4.58</v>
       </c>
       <c r="D345">
-        <v>13.39</v>
+        <v>8.16</v>
       </c>
       <c r="E345" t="s">
         <v>9</v>
@@ -10915,7 +10917,7 @@
         <v>14</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.3">
@@ -10926,10 +10928,10 @@
         <v>19</v>
       </c>
       <c r="C346">
-        <v>4.3099999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D346">
-        <v>9.4700000000000006</v>
+        <v>7.13</v>
       </c>
       <c r="E346" t="s">
         <v>9</v>
@@ -10952,10 +10954,10 @@
         <v>19</v>
       </c>
       <c r="C347">
-        <v>3.15</v>
+        <v>3.83</v>
       </c>
       <c r="D347">
-        <v>7.68</v>
+        <v>7.89</v>
       </c>
       <c r="E347" t="s">
         <v>13</v>
@@ -10967,7 +10969,7 @@
         <v>10</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.3">
@@ -10978,10 +10980,10 @@
         <v>8</v>
       </c>
       <c r="C348">
-        <v>8.64</v>
+        <v>12.4</v>
       </c>
       <c r="D348">
-        <v>16.8</v>
+        <v>10.88</v>
       </c>
       <c r="E348" t="s">
         <v>13</v>
@@ -10993,7 +10995,7 @@
         <v>14</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.3">
@@ -11004,10 +11006,10 @@
         <v>19</v>
       </c>
       <c r="C349">
-        <v>3.81</v>
+        <v>8.4</v>
       </c>
       <c r="D349">
-        <v>6.28</v>
+        <v>6.44</v>
       </c>
       <c r="E349" t="s">
         <v>13</v>
@@ -11030,10 +11032,10 @@
         <v>19</v>
       </c>
       <c r="C350">
-        <v>8.67</v>
+        <v>6.66</v>
       </c>
       <c r="D350">
-        <v>19.46</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="E350" t="s">
         <v>13</v>
@@ -11056,10 +11058,10 @@
         <v>19</v>
       </c>
       <c r="C351">
-        <v>3.83</v>
+        <v>5.68</v>
       </c>
       <c r="D351">
-        <v>6</v>
+        <v>5.21</v>
       </c>
       <c r="E351" t="s">
         <v>13</v>
@@ -11082,10 +11084,10 @@
         <v>12</v>
       </c>
       <c r="C352">
-        <v>8.5399999999999991</v>
+        <v>1.55</v>
       </c>
       <c r="D352">
-        <v>16.32</v>
+        <v>3.99</v>
       </c>
       <c r="E352" t="s">
         <v>13</v>
@@ -11097,7 +11099,7 @@
         <v>10</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.3">
@@ -11108,10 +11110,10 @@
         <v>8</v>
       </c>
       <c r="C353">
-        <v>3.68</v>
+        <v>13.3</v>
       </c>
       <c r="D353">
-        <v>8.4700000000000006</v>
+        <v>14.41</v>
       </c>
       <c r="E353" t="s">
         <v>9</v>
@@ -11134,10 +11136,10 @@
         <v>12</v>
       </c>
       <c r="C354">
-        <v>7.64</v>
+        <v>2.69</v>
       </c>
       <c r="D354">
-        <v>13.26</v>
+        <v>3.28</v>
       </c>
       <c r="E354" t="s">
         <v>9</v>
@@ -11160,10 +11162,10 @@
         <v>12</v>
       </c>
       <c r="C355">
-        <v>3.27</v>
+        <v>1.68</v>
       </c>
       <c r="D355">
-        <v>5.08</v>
+        <v>4.38</v>
       </c>
       <c r="E355" t="s">
         <v>9</v>
@@ -11175,7 +11177,7 @@
         <v>10</v>
       </c>
       <c r="H355">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.3">
@@ -11186,10 +11188,10 @@
         <v>8</v>
       </c>
       <c r="C356">
-        <v>7.66</v>
+        <v>9.34</v>
       </c>
       <c r="D356">
-        <v>11.54</v>
+        <v>12.07</v>
       </c>
       <c r="E356" t="s">
         <v>13</v>
@@ -11201,7 +11203,7 @@
         <v>10</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.3">
@@ -11212,10 +11214,10 @@
         <v>12</v>
       </c>
       <c r="C357">
-        <v>7.83</v>
+        <v>1.77</v>
       </c>
       <c r="D357">
-        <v>14.7</v>
+        <v>4.55</v>
       </c>
       <c r="E357" t="s">
         <v>9</v>
@@ -11238,10 +11240,10 @@
         <v>8</v>
       </c>
       <c r="C358">
-        <v>8.93</v>
+        <v>12.5</v>
       </c>
       <c r="D358">
-        <v>21.54</v>
+        <v>13.28</v>
       </c>
       <c r="E358" t="s">
         <v>9</v>
@@ -11264,10 +11266,10 @@
         <v>12</v>
       </c>
       <c r="C359">
-        <v>2.54</v>
+        <v>2.66</v>
       </c>
       <c r="D359">
-        <v>4.54</v>
+        <v>4.78</v>
       </c>
       <c r="E359" t="s">
         <v>9</v>
@@ -11290,22 +11292,22 @@
         <v>12</v>
       </c>
       <c r="C360">
-        <v>7.76</v>
+        <v>1.75</v>
       </c>
       <c r="D360">
-        <v>18.46</v>
+        <v>4.41</v>
       </c>
       <c r="E360" t="s">
         <v>13</v>
       </c>
       <c r="F360">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G360" t="s">
         <v>14</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.3">
@@ -11316,10 +11318,10 @@
         <v>19</v>
       </c>
       <c r="C361">
-        <v>3.37</v>
+        <v>4.2</v>
       </c>
       <c r="D361">
-        <v>6.97</v>
+        <v>8.32</v>
       </c>
       <c r="E361" t="s">
         <v>9</v>
@@ -11331,7 +11333,7 @@
         <v>10</v>
       </c>
       <c r="H361">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.3">
@@ -11342,10 +11344,10 @@
         <v>19</v>
       </c>
       <c r="C362">
-        <v>2.98</v>
+        <v>3.62</v>
       </c>
       <c r="D362">
-        <v>5.28</v>
+        <v>5.74</v>
       </c>
       <c r="E362" t="s">
         <v>9</v>
@@ -11368,16 +11370,16 @@
         <v>12</v>
       </c>
       <c r="C363">
-        <v>6.01</v>
+        <v>1.39</v>
       </c>
       <c r="D363">
-        <v>11.95</v>
+        <v>4.34</v>
       </c>
       <c r="E363" t="s">
         <v>13</v>
       </c>
       <c r="F363">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G363" t="s">
         <v>10</v>
@@ -11394,16 +11396,16 @@
         <v>12</v>
       </c>
       <c r="C364">
-        <v>9.51</v>
+        <v>1.44</v>
       </c>
       <c r="D364">
-        <v>22.02</v>
+        <v>3.88</v>
       </c>
       <c r="E364" t="s">
         <v>13</v>
       </c>
       <c r="F364">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G364" t="s">
         <v>14</v>
@@ -11420,10 +11422,10 @@
         <v>19</v>
       </c>
       <c r="C365">
-        <v>3.39</v>
+        <v>7.65</v>
       </c>
       <c r="D365">
-        <v>8.18</v>
+        <v>9.27</v>
       </c>
       <c r="E365" t="s">
         <v>13</v>
@@ -11435,7 +11437,7 @@
         <v>14</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.3">
@@ -11446,16 +11448,16 @@
         <v>12</v>
       </c>
       <c r="C366">
-        <v>1.3</v>
+        <v>2.83</v>
       </c>
       <c r="D366">
-        <v>1.97</v>
+        <v>3.01</v>
       </c>
       <c r="E366" t="s">
         <v>13</v>
       </c>
       <c r="F366">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G366" t="s">
         <v>14</v>
@@ -11472,10 +11474,10 @@
         <v>19</v>
       </c>
       <c r="C367">
-        <v>8.08</v>
+        <v>6.99</v>
       </c>
       <c r="D367">
-        <v>17.8</v>
+        <v>8.3699999999999992</v>
       </c>
       <c r="E367" t="s">
         <v>9</v>
@@ -11498,10 +11500,10 @@
         <v>12</v>
       </c>
       <c r="C368">
-        <v>4.66</v>
+        <v>1.8</v>
       </c>
       <c r="D368">
-        <v>11.62</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="E368" t="s">
         <v>9</v>
@@ -11513,7 +11515,7 @@
         <v>10</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.3">
@@ -11524,10 +11526,10 @@
         <v>12</v>
       </c>
       <c r="C369">
-        <v>1.22</v>
+        <v>1.85</v>
       </c>
       <c r="D369">
-        <v>2.59</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="E369" t="s">
         <v>9</v>
@@ -11550,10 +11552,10 @@
         <v>12</v>
       </c>
       <c r="C370">
-        <v>7.72</v>
+        <v>2</v>
       </c>
       <c r="D370">
-        <v>15.74</v>
+        <v>4.33</v>
       </c>
       <c r="E370" t="s">
         <v>9</v>
@@ -11576,22 +11578,22 @@
         <v>12</v>
       </c>
       <c r="C371">
-        <v>3.24</v>
+        <v>2.62</v>
       </c>
       <c r="D371">
-        <v>6.76</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="E371" t="s">
         <v>13</v>
       </c>
       <c r="F371">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G371" t="s">
         <v>10</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.3">
@@ -11602,10 +11604,10 @@
         <v>19</v>
       </c>
       <c r="C372">
-        <v>3.63</v>
+        <v>5.31</v>
       </c>
       <c r="D372">
-        <v>8.42</v>
+        <v>9.2200000000000006</v>
       </c>
       <c r="E372" t="s">
         <v>9</v>
@@ -11617,7 +11619,7 @@
         <v>10</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.3">
@@ -11628,10 +11630,10 @@
         <v>19</v>
       </c>
       <c r="C373">
-        <v>1.36</v>
+        <v>3.84</v>
       </c>
       <c r="D373">
-        <v>3.08</v>
+        <v>6.21</v>
       </c>
       <c r="E373" t="s">
         <v>13</v>
@@ -11654,10 +11656,10 @@
         <v>19</v>
       </c>
       <c r="C374">
-        <v>6.77</v>
+        <v>7.49</v>
       </c>
       <c r="D374">
-        <v>16.09</v>
+        <v>5.13</v>
       </c>
       <c r="E374" t="s">
         <v>13</v>
@@ -11680,10 +11682,10 @@
         <v>8</v>
       </c>
       <c r="C375">
-        <v>5.91</v>
+        <v>11.87</v>
       </c>
       <c r="D375">
-        <v>14.47</v>
+        <v>14.46</v>
       </c>
       <c r="E375" t="s">
         <v>13</v>
@@ -11706,10 +11708,10 @@
         <v>19</v>
       </c>
       <c r="C376">
-        <v>6.07</v>
+        <v>6.84</v>
       </c>
       <c r="D376">
-        <v>12.51</v>
+        <v>7.8</v>
       </c>
       <c r="E376" t="s">
         <v>13</v>
@@ -11732,10 +11734,10 @@
         <v>19</v>
       </c>
       <c r="C377">
-        <v>1.56</v>
+        <v>5.34</v>
       </c>
       <c r="D377">
-        <v>2.85</v>
+        <v>6.8</v>
       </c>
       <c r="E377" t="s">
         <v>9</v>
@@ -11758,10 +11760,10 @@
         <v>12</v>
       </c>
       <c r="C378">
-        <v>1.05</v>
+        <v>1.47</v>
       </c>
       <c r="D378">
-        <v>2.38</v>
+        <v>3.34</v>
       </c>
       <c r="E378" t="s">
         <v>9</v>
@@ -11773,7 +11775,7 @@
         <v>14</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.3">
@@ -11784,10 +11786,10 @@
         <v>12</v>
       </c>
       <c r="C379">
-        <v>1.48</v>
+        <v>1.37</v>
       </c>
       <c r="D379">
-        <v>3.41</v>
+        <v>4.58</v>
       </c>
       <c r="E379" t="s">
         <v>9</v>
@@ -11810,10 +11812,10 @@
         <v>19</v>
       </c>
       <c r="C380">
-        <v>1.72</v>
+        <v>6.93</v>
       </c>
       <c r="D380">
-        <v>3.4</v>
+        <v>8.27</v>
       </c>
       <c r="E380" t="s">
         <v>9</v>
@@ -11825,7 +11827,7 @@
         <v>10</v>
       </c>
       <c r="H380">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.3">
@@ -11836,10 +11838,10 @@
         <v>19</v>
       </c>
       <c r="C381">
-        <v>4.3499999999999996</v>
+        <v>7.42</v>
       </c>
       <c r="D381">
-        <v>10.46</v>
+        <v>7.01</v>
       </c>
       <c r="E381" t="s">
         <v>13</v>
@@ -11851,7 +11853,7 @@
         <v>14</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.3">
@@ -11862,10 +11864,10 @@
         <v>19</v>
       </c>
       <c r="C382">
-        <v>1.1399999999999999</v>
+        <v>5.99</v>
       </c>
       <c r="D382">
-        <v>2.62</v>
+        <v>5.41</v>
       </c>
       <c r="E382" t="s">
         <v>9</v>
@@ -11877,7 +11879,7 @@
         <v>10</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.3">
@@ -11888,10 +11890,10 @@
         <v>19</v>
       </c>
       <c r="C383">
-        <v>1.93</v>
+        <v>5.09</v>
       </c>
       <c r="D383">
-        <v>3.2</v>
+        <v>8.27</v>
       </c>
       <c r="E383" t="s">
         <v>9</v>
@@ -11903,7 +11905,7 @@
         <v>10</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.3">
@@ -11914,16 +11916,16 @@
         <v>12</v>
       </c>
       <c r="C384">
-        <v>3.48</v>
+        <v>2.56</v>
       </c>
       <c r="D384">
-        <v>7.2</v>
+        <v>3.16</v>
       </c>
       <c r="E384" t="s">
         <v>13</v>
       </c>
       <c r="F384">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G384" t="s">
         <v>10</v>
@@ -11940,16 +11942,16 @@
         <v>12</v>
       </c>
       <c r="C385">
-        <v>8</v>
+        <v>2.59</v>
       </c>
       <c r="D385">
-        <v>18.3</v>
+        <v>3.65</v>
       </c>
       <c r="E385" t="s">
         <v>13</v>
       </c>
       <c r="F385">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G385" t="s">
         <v>14</v>
@@ -11966,10 +11968,10 @@
         <v>19</v>
       </c>
       <c r="C386">
-        <v>8.9</v>
+        <v>4.59</v>
       </c>
       <c r="D386">
-        <v>21.81</v>
+        <v>6.62</v>
       </c>
       <c r="E386" t="s">
         <v>9</v>
@@ -11981,7 +11983,7 @@
         <v>10</v>
       </c>
       <c r="H386">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.3">
@@ -11992,10 +11994,10 @@
         <v>19</v>
       </c>
       <c r="C387">
-        <v>3.43</v>
+        <v>5.75</v>
       </c>
       <c r="D387">
-        <v>6.2</v>
+        <v>7.25</v>
       </c>
       <c r="E387" t="s">
         <v>13</v>
@@ -12018,10 +12020,10 @@
         <v>19</v>
       </c>
       <c r="C388">
-        <v>4.47</v>
+        <v>8.24</v>
       </c>
       <c r="D388">
-        <v>10.34</v>
+        <v>6.82</v>
       </c>
       <c r="E388" t="s">
         <v>13</v>
@@ -12044,10 +12046,10 @@
         <v>19</v>
       </c>
       <c r="C389">
-        <v>4.08</v>
+        <v>8.36</v>
       </c>
       <c r="D389">
-        <v>8.6</v>
+        <v>6.59</v>
       </c>
       <c r="E389" t="s">
         <v>13</v>
@@ -12070,22 +12072,22 @@
         <v>12</v>
       </c>
       <c r="C390">
-        <v>8.19</v>
+        <v>1.91</v>
       </c>
       <c r="D390">
-        <v>12.42</v>
+        <v>4.05</v>
       </c>
       <c r="E390" t="s">
         <v>13</v>
       </c>
       <c r="F390">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G390" t="s">
         <v>10</v>
       </c>
       <c r="H390">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.3">
@@ -12096,22 +12098,22 @@
         <v>12</v>
       </c>
       <c r="C391">
-        <v>0.62</v>
+        <v>1.57</v>
       </c>
       <c r="D391">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="E391" t="s">
+        <v>9</v>
+      </c>
+      <c r="F391">
+        <v>3</v>
+      </c>
+      <c r="G391" t="s">
+        <v>14</v>
+      </c>
+      <c r="H391">
         <v>1</v>
-      </c>
-      <c r="E391" t="s">
-        <v>9</v>
-      </c>
-      <c r="F391">
-        <v>3</v>
-      </c>
-      <c r="G391" t="s">
-        <v>14</v>
-      </c>
-      <c r="H391">
-        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.3">
@@ -12122,10 +12124,10 @@
         <v>12</v>
       </c>
       <c r="C392">
-        <v>8.11</v>
+        <v>1.77</v>
       </c>
       <c r="D392">
-        <v>14.64</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E392" t="s">
         <v>9</v>
@@ -12137,7 +12139,7 @@
         <v>10</v>
       </c>
       <c r="H392">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.3">
@@ -12148,10 +12150,10 @@
         <v>8</v>
       </c>
       <c r="C393">
-        <v>6.87</v>
+        <v>13.87</v>
       </c>
       <c r="D393">
-        <v>14.93</v>
+        <v>10.68</v>
       </c>
       <c r="E393" t="s">
         <v>13</v>
@@ -12163,7 +12165,7 @@
         <v>10</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.3">
@@ -12174,10 +12176,10 @@
         <v>19</v>
       </c>
       <c r="C394">
-        <v>1.86</v>
+        <v>4.75</v>
       </c>
       <c r="D394">
-        <v>3.95</v>
+        <v>9.33</v>
       </c>
       <c r="E394" t="s">
         <v>13</v>
@@ -12200,10 +12202,10 @@
         <v>19</v>
       </c>
       <c r="C395">
-        <v>3.99</v>
+        <v>6.9</v>
       </c>
       <c r="D395">
-        <v>9.2899999999999991</v>
+        <v>5.16</v>
       </c>
       <c r="E395" t="s">
         <v>13</v>
@@ -12226,10 +12228,10 @@
         <v>12</v>
       </c>
       <c r="C396">
-        <v>7.1</v>
+        <v>2.73</v>
       </c>
       <c r="D396">
-        <v>13.9</v>
+        <v>3.71</v>
       </c>
       <c r="E396" t="s">
         <v>9</v>
@@ -12241,7 +12243,7 @@
         <v>10</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.3">
@@ -12252,10 +12254,10 @@
         <v>12</v>
       </c>
       <c r="C397">
-        <v>5.01</v>
+        <v>2.06</v>
       </c>
       <c r="D397">
-        <v>9.58</v>
+        <v>3.82</v>
       </c>
       <c r="E397" t="s">
         <v>9</v>
@@ -12278,10 +12280,10 @@
         <v>8</v>
       </c>
       <c r="C398">
-        <v>7.83</v>
+        <v>11.43</v>
       </c>
       <c r="D398">
-        <v>15.37</v>
+        <v>12.64</v>
       </c>
       <c r="E398" t="s">
         <v>9</v>
@@ -12304,10 +12306,10 @@
         <v>12</v>
       </c>
       <c r="C399">
-        <v>6.92</v>
+        <v>1.66</v>
       </c>
       <c r="D399">
-        <v>15.35</v>
+        <v>3.39</v>
       </c>
       <c r="E399" t="s">
         <v>9</v>
@@ -12319,7 +12321,7 @@
         <v>10</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.3">
@@ -12330,22 +12332,22 @@
         <v>12</v>
       </c>
       <c r="C400">
-        <v>8.6</v>
+        <v>2.62</v>
       </c>
       <c r="D400">
-        <v>21.32</v>
+        <v>4.54</v>
       </c>
       <c r="E400" t="s">
         <v>13</v>
       </c>
       <c r="F400">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G400" t="s">
         <v>10</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.3">
@@ -12356,10 +12358,10 @@
         <v>12</v>
       </c>
       <c r="C401">
-        <v>9.39</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="D401">
-        <v>20.28</v>
+        <v>3.41</v>
       </c>
       <c r="E401" t="s">
         <v>9</v>
@@ -12371,7 +12373,7 @@
         <v>10</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.3">
@@ -12382,10 +12384,10 @@
         <v>8</v>
       </c>
       <c r="C402">
-        <v>4.38</v>
+        <v>13.37</v>
       </c>
       <c r="D402">
-        <v>6.76</v>
+        <v>10.29</v>
       </c>
       <c r="E402" t="s">
         <v>13</v>
@@ -12408,10 +12410,10 @@
         <v>12</v>
       </c>
       <c r="C403">
-        <v>2.36</v>
+        <v>1.5</v>
       </c>
       <c r="D403">
-        <v>3.71</v>
+        <v>3.91</v>
       </c>
       <c r="E403" t="s">
         <v>9</v>
@@ -12434,16 +12436,16 @@
         <v>12</v>
       </c>
       <c r="C404">
-        <v>6.49</v>
+        <v>2.38</v>
       </c>
       <c r="D404">
-        <v>11.31</v>
+        <v>3.99</v>
       </c>
       <c r="E404" t="s">
         <v>13</v>
       </c>
       <c r="F404">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G404" t="s">
         <v>10</v>
@@ -12460,10 +12462,10 @@
         <v>12</v>
       </c>
       <c r="C405">
-        <v>8.36</v>
+        <v>2.27</v>
       </c>
       <c r="D405">
-        <v>17.190000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E405" t="s">
         <v>9</v>
@@ -12486,10 +12488,10 @@
         <v>19</v>
       </c>
       <c r="C406">
-        <v>6.84</v>
+        <v>5.95</v>
       </c>
       <c r="D406">
-        <v>14.69</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="E406" t="s">
         <v>13</v>
@@ -12501,7 +12503,7 @@
         <v>10</v>
       </c>
       <c r="H406">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.3">
@@ -12512,10 +12514,10 @@
         <v>8</v>
       </c>
       <c r="C407">
-        <v>9.18</v>
+        <v>9.26</v>
       </c>
       <c r="D407">
-        <v>21.73</v>
+        <v>14.17</v>
       </c>
       <c r="E407" t="s">
         <v>13</v>
@@ -12527,7 +12529,7 @@
         <v>10</v>
       </c>
       <c r="H407">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.3">
@@ -12538,10 +12540,10 @@
         <v>8</v>
       </c>
       <c r="C408">
-        <v>5.28</v>
+        <v>13.71</v>
       </c>
       <c r="D408">
-        <v>8.1300000000000008</v>
+        <v>13.92</v>
       </c>
       <c r="E408" t="s">
         <v>9</v>
@@ -12564,10 +12566,10 @@
         <v>8</v>
       </c>
       <c r="C409">
-        <v>5.79</v>
+        <v>13.96</v>
       </c>
       <c r="D409">
-        <v>11.22</v>
+        <v>10.73</v>
       </c>
       <c r="E409" t="s">
         <v>9</v>
@@ -12590,16 +12592,16 @@
         <v>12</v>
       </c>
       <c r="C410">
-        <v>1.0900000000000001</v>
+        <v>2.13</v>
       </c>
       <c r="D410">
-        <v>1.9</v>
+        <v>3.34</v>
       </c>
       <c r="E410" t="s">
         <v>13</v>
       </c>
       <c r="F410">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G410" t="s">
         <v>10</v>
@@ -12616,10 +12618,10 @@
         <v>12</v>
       </c>
       <c r="C411">
-        <v>8.7799999999999994</v>
+        <v>2.83</v>
       </c>
       <c r="D411">
-        <v>13.32</v>
+        <v>3.7</v>
       </c>
       <c r="E411" t="s">
         <v>9</v>
@@ -12642,10 +12644,10 @@
         <v>12</v>
       </c>
       <c r="C412">
-        <v>7.39</v>
+        <v>1.44</v>
       </c>
       <c r="D412">
-        <v>17.45</v>
+        <v>4.03</v>
       </c>
       <c r="E412" t="s">
         <v>9</v>
@@ -12657,7 +12659,7 @@
         <v>14</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.3">
@@ -12668,10 +12670,10 @@
         <v>8</v>
       </c>
       <c r="C413">
-        <v>3.37</v>
+        <v>12.51</v>
       </c>
       <c r="D413">
-        <v>5.72</v>
+        <v>11.1</v>
       </c>
       <c r="E413" t="s">
         <v>9</v>
@@ -12694,10 +12696,10 @@
         <v>19</v>
       </c>
       <c r="C414">
-        <v>4.3600000000000003</v>
+        <v>3.71</v>
       </c>
       <c r="D414">
-        <v>8.59</v>
+        <v>7.58</v>
       </c>
       <c r="E414" t="s">
         <v>13</v>
@@ -12720,10 +12722,10 @@
         <v>8</v>
       </c>
       <c r="C415">
-        <v>7.7</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="D415">
-        <v>11.77</v>
+        <v>13.19</v>
       </c>
       <c r="E415" t="s">
         <v>9</v>
@@ -12746,10 +12748,10 @@
         <v>19</v>
       </c>
       <c r="C416">
-        <v>9.44</v>
+        <v>4.71</v>
       </c>
       <c r="D416">
-        <v>19.37</v>
+        <v>8.49</v>
       </c>
       <c r="E416" t="s">
         <v>9</v>
@@ -12761,7 +12763,7 @@
         <v>14</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.3">
@@ -12772,10 +12774,10 @@
         <v>19</v>
       </c>
       <c r="C417">
-        <v>3.19</v>
+        <v>7.6</v>
       </c>
       <c r="D417">
-        <v>7.38</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="E417" t="s">
         <v>13</v>
@@ -12787,7 +12789,7 @@
         <v>10</v>
       </c>
       <c r="H417">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.3">
@@ -12798,10 +12800,10 @@
         <v>19</v>
       </c>
       <c r="C418">
-        <v>9.82</v>
+        <v>7.07</v>
       </c>
       <c r="D418">
-        <v>15.99</v>
+        <v>6.5</v>
       </c>
       <c r="E418" t="s">
         <v>13</v>
@@ -12813,7 +12815,7 @@
         <v>10</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.3">
@@ -12824,10 +12826,10 @@
         <v>12</v>
       </c>
       <c r="C419">
-        <v>5.92</v>
+        <v>2.11</v>
       </c>
       <c r="D419">
-        <v>14.75</v>
+        <v>4.79</v>
       </c>
       <c r="E419" t="s">
         <v>9</v>
@@ -12850,10 +12852,10 @@
         <v>19</v>
       </c>
       <c r="C420">
-        <v>5.26</v>
+        <v>5.39</v>
       </c>
       <c r="D420">
-        <v>11.22</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="E420" t="s">
         <v>13</v>
@@ -12876,10 +12878,10 @@
         <v>19</v>
       </c>
       <c r="C421">
-        <v>8.2200000000000006</v>
+        <v>5.34</v>
       </c>
       <c r="D421">
-        <v>18.62</v>
+        <v>8.19</v>
       </c>
       <c r="E421" t="s">
         <v>9</v>
@@ -12891,7 +12893,7 @@
         <v>10</v>
       </c>
       <c r="H421">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.3">
@@ -12902,10 +12904,10 @@
         <v>19</v>
       </c>
       <c r="C422">
-        <v>6.33</v>
+        <v>6.73</v>
       </c>
       <c r="D422">
-        <v>15.48</v>
+        <v>7.19</v>
       </c>
       <c r="E422" t="s">
         <v>9</v>
@@ -12928,22 +12930,22 @@
         <v>12</v>
       </c>
       <c r="C423">
-        <v>7.57</v>
+        <v>2.17</v>
       </c>
       <c r="D423">
-        <v>16.47</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="E423" t="s">
         <v>13</v>
       </c>
       <c r="F423">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G423" t="s">
         <v>10</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.3">
@@ -12954,10 +12956,10 @@
         <v>8</v>
       </c>
       <c r="C424">
-        <v>8.75</v>
+        <v>13.42</v>
       </c>
       <c r="D424">
-        <v>14.42</v>
+        <v>11.73</v>
       </c>
       <c r="E424" t="s">
         <v>9</v>
@@ -12969,7 +12971,7 @@
         <v>10</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.3">
@@ -12980,10 +12982,10 @@
         <v>8</v>
       </c>
       <c r="C425">
-        <v>9.0299999999999994</v>
+        <v>11.61</v>
       </c>
       <c r="D425">
-        <v>19.899999999999999</v>
+        <v>12.66</v>
       </c>
       <c r="E425" t="s">
         <v>9</v>
@@ -13006,10 +13008,10 @@
         <v>19</v>
       </c>
       <c r="C426">
-        <v>8.33</v>
+        <v>4.92</v>
       </c>
       <c r="D426">
-        <v>20.239999999999998</v>
+        <v>6.34</v>
       </c>
       <c r="E426" t="s">
         <v>13</v>
@@ -13032,10 +13034,10 @@
         <v>19</v>
       </c>
       <c r="C427">
-        <v>9.5399999999999991</v>
+        <v>6.36</v>
       </c>
       <c r="D427">
-        <v>23.41</v>
+        <v>6.75</v>
       </c>
       <c r="E427" t="s">
         <v>9</v>
@@ -13058,10 +13060,10 @@
         <v>19</v>
       </c>
       <c r="C428">
-        <v>1.32</v>
+        <v>5.14</v>
       </c>
       <c r="D428">
-        <v>2.48</v>
+        <v>7.02</v>
       </c>
       <c r="E428" t="s">
         <v>13</v>
@@ -13084,10 +13086,10 @@
         <v>19</v>
       </c>
       <c r="C429">
-        <v>6.3</v>
+        <v>4.22</v>
       </c>
       <c r="D429">
-        <v>12.23</v>
+        <v>5.9</v>
       </c>
       <c r="E429" t="s">
         <v>13</v>
@@ -13110,10 +13112,10 @@
         <v>19</v>
       </c>
       <c r="C430">
-        <v>6.93</v>
+        <v>3.93</v>
       </c>
       <c r="D430">
-        <v>12.38</v>
+        <v>7.04</v>
       </c>
       <c r="E430" t="s">
         <v>9</v>
@@ -13125,7 +13127,7 @@
         <v>10</v>
       </c>
       <c r="H430">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.3">
@@ -13136,22 +13138,22 @@
         <v>12</v>
       </c>
       <c r="C431">
-        <v>8.0500000000000007</v>
+        <v>1.25</v>
       </c>
       <c r="D431">
-        <v>16.760000000000002</v>
+        <v>3.88</v>
       </c>
       <c r="E431" t="s">
         <v>13</v>
       </c>
       <c r="F431">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G431" t="s">
         <v>10</v>
       </c>
       <c r="H431">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.3">
@@ -13162,10 +13164,10 @@
         <v>8</v>
       </c>
       <c r="C432">
-        <v>0.73</v>
+        <v>9.33</v>
       </c>
       <c r="D432">
-        <v>1.17</v>
+        <v>9.91</v>
       </c>
       <c r="E432" t="s">
         <v>9</v>
@@ -13177,7 +13179,7 @@
         <v>10</v>
       </c>
       <c r="H432">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.3">
@@ -13188,10 +13190,10 @@
         <v>8</v>
       </c>
       <c r="C433">
-        <v>3.19</v>
+        <v>12.2</v>
       </c>
       <c r="D433">
-        <v>6.68</v>
+        <v>10.52</v>
       </c>
       <c r="E433" t="s">
         <v>9</v>
@@ -13203,7 +13205,7 @@
         <v>10</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.3">
@@ -13214,10 +13216,10 @@
         <v>12</v>
       </c>
       <c r="C434">
-        <v>5.64</v>
+        <v>1.77</v>
       </c>
       <c r="D434">
-        <v>13.58</v>
+        <v>4.53</v>
       </c>
       <c r="E434" t="s">
         <v>13</v>
@@ -13240,10 +13242,10 @@
         <v>19</v>
       </c>
       <c r="C435">
-        <v>2.52</v>
+        <v>5.73</v>
       </c>
       <c r="D435">
-        <v>3.81</v>
+        <v>5.13</v>
       </c>
       <c r="E435" t="s">
         <v>9</v>
@@ -13255,7 +13257,7 @@
         <v>10</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.3">
@@ -13266,22 +13268,22 @@
         <v>12</v>
       </c>
       <c r="C436">
-        <v>6.21</v>
+        <v>2.75</v>
       </c>
       <c r="D436">
-        <v>14.21</v>
+        <v>3.07</v>
       </c>
       <c r="E436" t="s">
         <v>13</v>
       </c>
       <c r="F436">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G436" t="s">
         <v>10</v>
       </c>
       <c r="H436">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.3">
@@ -13292,10 +13294,10 @@
         <v>8</v>
       </c>
       <c r="C437">
-        <v>8.91</v>
+        <v>11.33</v>
       </c>
       <c r="D437">
-        <v>18.84</v>
+        <v>13.21</v>
       </c>
       <c r="E437" t="s">
         <v>13</v>
@@ -13307,7 +13309,7 @@
         <v>14</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.3">
@@ -13318,10 +13320,10 @@
         <v>8</v>
       </c>
       <c r="C438">
-        <v>5.32</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="D438">
-        <v>10.47</v>
+        <v>13.15</v>
       </c>
       <c r="E438" t="s">
         <v>13</v>
@@ -13344,22 +13346,22 @@
         <v>12</v>
       </c>
       <c r="C439">
-        <v>4.33</v>
+        <v>1.64</v>
       </c>
       <c r="D439">
-        <v>10.3</v>
+        <v>3.63</v>
       </c>
       <c r="E439" t="s">
         <v>13</v>
       </c>
       <c r="F439">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G439" t="s">
         <v>10</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.3">
@@ -13370,10 +13372,10 @@
         <v>8</v>
       </c>
       <c r="C440">
-        <v>1.01</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="D440">
-        <v>1.81</v>
+        <v>14.18</v>
       </c>
       <c r="E440" t="s">
         <v>13</v>
@@ -13385,7 +13387,7 @@
         <v>10</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.3">
@@ -13396,10 +13398,10 @@
         <v>19</v>
       </c>
       <c r="C441">
-        <v>4.29</v>
+        <v>5.68</v>
       </c>
       <c r="D441">
-        <v>8.14</v>
+        <v>7.89</v>
       </c>
       <c r="E441" t="s">
         <v>13</v>
@@ -13411,7 +13413,7 @@
         <v>10</v>
       </c>
       <c r="H441">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.3">
@@ -13422,10 +13424,10 @@
         <v>19</v>
       </c>
       <c r="C442">
-        <v>5.52</v>
+        <v>5.36</v>
       </c>
       <c r="D442">
-        <v>9.92</v>
+        <v>5.89</v>
       </c>
       <c r="E442" t="s">
         <v>9</v>
@@ -13437,7 +13439,7 @@
         <v>10</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.3">
@@ -13448,10 +13450,10 @@
         <v>12</v>
       </c>
       <c r="C443">
-        <v>4.0599999999999996</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="D443">
-        <v>9.44</v>
+        <v>3.14</v>
       </c>
       <c r="E443" t="s">
         <v>9</v>
@@ -13474,22 +13476,22 @@
         <v>12</v>
       </c>
       <c r="C444">
-        <v>1.1299999999999999</v>
+        <v>1.93</v>
       </c>
       <c r="D444">
-        <v>1.76</v>
+        <v>4.62</v>
       </c>
       <c r="E444" t="s">
         <v>13</v>
       </c>
       <c r="F444">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G444" t="s">
         <v>10</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.3">
@@ -13500,10 +13502,10 @@
         <v>8</v>
       </c>
       <c r="C445">
-        <v>2.93</v>
+        <v>14.23</v>
       </c>
       <c r="D445">
-        <v>5.41</v>
+        <v>10.02</v>
       </c>
       <c r="E445" t="s">
         <v>9</v>
@@ -13526,10 +13528,10 @@
         <v>19</v>
       </c>
       <c r="C446">
-        <v>5.77</v>
+        <v>7.33</v>
       </c>
       <c r="D446">
-        <v>9.68</v>
+        <v>8.92</v>
       </c>
       <c r="E446" t="s">
         <v>13</v>
@@ -13552,10 +13554,10 @@
         <v>8</v>
       </c>
       <c r="C447">
-        <v>5.42</v>
+        <v>14.41</v>
       </c>
       <c r="D447">
-        <v>10.91</v>
+        <v>11.38</v>
       </c>
       <c r="E447" t="s">
         <v>9</v>
@@ -13567,7 +13569,7 @@
         <v>10</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.3">
@@ -13578,10 +13580,10 @@
         <v>8</v>
       </c>
       <c r="C448">
-        <v>9.24</v>
+        <v>12.74</v>
       </c>
       <c r="D448">
-        <v>15.77</v>
+        <v>11.62</v>
       </c>
       <c r="E448" t="s">
         <v>9</v>
@@ -13604,10 +13606,10 @@
         <v>12</v>
       </c>
       <c r="C449">
-        <v>5.51</v>
+        <v>1.63</v>
       </c>
       <c r="D449">
-        <v>11.69</v>
+        <v>3.66</v>
       </c>
       <c r="E449" t="s">
         <v>9</v>
@@ -13630,16 +13632,16 @@
         <v>19</v>
       </c>
       <c r="C450">
-        <v>9.3000000000000007</v>
+        <v>4.12</v>
       </c>
       <c r="D450">
-        <v>14.48</v>
+        <v>5.96</v>
       </c>
       <c r="E450" t="s">
         <v>13</v>
       </c>
       <c r="F450">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G450" t="s">
         <v>10</v>
@@ -13656,10 +13658,10 @@
         <v>12</v>
       </c>
       <c r="C451">
-        <v>5.49</v>
+        <v>1.35</v>
       </c>
       <c r="D451">
-        <v>10.26</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="E451" t="s">
         <v>9</v>
@@ -13682,16 +13684,16 @@
         <v>12</v>
       </c>
       <c r="C452">
-        <v>4.5599999999999996</v>
+        <v>2.34</v>
       </c>
       <c r="D452">
-        <v>9.5399999999999991</v>
+        <v>3.12</v>
       </c>
       <c r="E452" t="s">
         <v>13</v>
       </c>
       <c r="F452">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G452" t="s">
         <v>10</v>
@@ -13708,10 +13710,10 @@
         <v>12</v>
       </c>
       <c r="C453">
-        <v>3.29</v>
+        <v>1.69</v>
       </c>
       <c r="D453">
-        <v>5.26</v>
+        <v>3.28</v>
       </c>
       <c r="E453" t="s">
         <v>9</v>
@@ -13723,7 +13725,7 @@
         <v>10</v>
       </c>
       <c r="H453">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.3">
@@ -13734,10 +13736,10 @@
         <v>19</v>
       </c>
       <c r="C454">
-        <v>2.81</v>
+        <v>5.7</v>
       </c>
       <c r="D454">
-        <v>6.97</v>
+        <v>8.4</v>
       </c>
       <c r="E454" t="s">
         <v>13</v>
@@ -13760,10 +13762,10 @@
         <v>19</v>
       </c>
       <c r="C455">
-        <v>8.89</v>
+        <v>3.99</v>
       </c>
       <c r="D455">
-        <v>20.86</v>
+        <v>9.4700000000000006</v>
       </c>
       <c r="E455" t="s">
         <v>13</v>
@@ -13775,7 +13777,7 @@
         <v>10</v>
       </c>
       <c r="H455">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.3">
@@ -13786,10 +13788,10 @@
         <v>19</v>
       </c>
       <c r="C456">
-        <v>2.5099999999999998</v>
+        <v>8.27</v>
       </c>
       <c r="D456">
-        <v>6.1</v>
+        <v>9.19</v>
       </c>
       <c r="E456" t="s">
         <v>9</v>
@@ -13812,10 +13814,10 @@
         <v>8</v>
       </c>
       <c r="C457">
-        <v>3.53</v>
+        <v>10.210000000000001</v>
       </c>
       <c r="D457">
-        <v>7.78</v>
+        <v>14.35</v>
       </c>
       <c r="E457" t="s">
         <v>9</v>
@@ -13827,7 +13829,7 @@
         <v>10</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.3">
@@ -13838,10 +13840,10 @@
         <v>12</v>
       </c>
       <c r="C458">
-        <v>2.83</v>
+        <v>1.38</v>
       </c>
       <c r="D458">
-        <v>4.54</v>
+        <v>4</v>
       </c>
       <c r="E458" t="s">
         <v>13</v>
@@ -13853,7 +13855,7 @@
         <v>10</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.3">
@@ -13864,10 +13866,10 @@
         <v>12</v>
       </c>
       <c r="C459">
-        <v>4.8499999999999996</v>
+        <v>1.66</v>
       </c>
       <c r="D459">
-        <v>8.27</v>
+        <v>3.22</v>
       </c>
       <c r="E459" t="s">
         <v>9</v>
@@ -13879,7 +13881,7 @@
         <v>10</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.3">
@@ -13890,10 +13892,10 @@
         <v>8</v>
       </c>
       <c r="C460">
-        <v>1.32</v>
+        <v>11.84</v>
       </c>
       <c r="D460">
-        <v>3.24</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="E460" t="s">
         <v>9</v>
@@ -13916,10 +13918,10 @@
         <v>19</v>
       </c>
       <c r="C461">
-        <v>1.26</v>
+        <v>3.46</v>
       </c>
       <c r="D461">
-        <v>3.15</v>
+        <v>8.74</v>
       </c>
       <c r="E461" t="s">
         <v>9</v>
@@ -13942,10 +13944,10 @@
         <v>12</v>
       </c>
       <c r="C462">
-        <v>1.98</v>
+        <v>1.31</v>
       </c>
       <c r="D462">
-        <v>3.05</v>
+        <v>4.79</v>
       </c>
       <c r="E462" t="s">
         <v>9</v>
@@ -13968,10 +13970,10 @@
         <v>19</v>
       </c>
       <c r="C463">
-        <v>9.2799999999999994</v>
+        <v>6.65</v>
       </c>
       <c r="D463">
-        <v>21.34</v>
+        <v>6.46</v>
       </c>
       <c r="E463" t="s">
         <v>13</v>
@@ -13983,7 +13985,7 @@
         <v>10</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.3">
@@ -13994,10 +13996,10 @@
         <v>8</v>
       </c>
       <c r="C464">
-        <v>3.86</v>
+        <v>10.65</v>
       </c>
       <c r="D464">
-        <v>7.23</v>
+        <v>13.22</v>
       </c>
       <c r="E464" t="s">
         <v>13</v>
@@ -14020,10 +14022,10 @@
         <v>19</v>
       </c>
       <c r="C465">
-        <v>5.18</v>
+        <v>6.67</v>
       </c>
       <c r="D465">
-        <v>12.6</v>
+        <v>6.26</v>
       </c>
       <c r="E465" t="s">
         <v>9</v>
@@ -14046,10 +14048,10 @@
         <v>8</v>
       </c>
       <c r="C466">
-        <v>4.99</v>
+        <v>14.39</v>
       </c>
       <c r="D466">
-        <v>9.44</v>
+        <v>12.71</v>
       </c>
       <c r="E466" t="s">
         <v>13</v>
@@ -14072,10 +14074,10 @@
         <v>12</v>
       </c>
       <c r="C467">
-        <v>6.77</v>
+        <v>1.34</v>
       </c>
       <c r="D467">
-        <v>13.68</v>
+        <v>3.45</v>
       </c>
       <c r="E467" t="s">
         <v>9</v>
@@ -14098,10 +14100,10 @@
         <v>8</v>
       </c>
       <c r="C468">
-        <v>7.93</v>
+        <v>14.49</v>
       </c>
       <c r="D468">
-        <v>15.51</v>
+        <v>12.72</v>
       </c>
       <c r="E468" t="s">
         <v>13</v>
@@ -14113,7 +14115,7 @@
         <v>10</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.3">
@@ -14124,10 +14126,10 @@
         <v>12</v>
       </c>
       <c r="C469">
-        <v>2.6</v>
+        <v>1.35</v>
       </c>
       <c r="D469">
-        <v>4.55</v>
+        <v>4.04</v>
       </c>
       <c r="E469" t="s">
         <v>9</v>
@@ -14150,10 +14152,10 @@
         <v>19</v>
       </c>
       <c r="C470">
-        <v>3.17</v>
+        <v>8.24</v>
       </c>
       <c r="D470">
-        <v>7.69</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="E470" t="s">
         <v>9</v>
@@ -14176,10 +14178,10 @@
         <v>12</v>
       </c>
       <c r="C471">
-        <v>3.97</v>
+        <v>1.81</v>
       </c>
       <c r="D471">
-        <v>8.0399999999999991</v>
+        <v>4.18</v>
       </c>
       <c r="E471" t="s">
         <v>9</v>
@@ -14191,7 +14193,7 @@
         <v>10</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.3">
@@ -14202,10 +14204,10 @@
         <v>12</v>
       </c>
       <c r="C472">
-        <v>7.33</v>
+        <v>1.81</v>
       </c>
       <c r="D472">
-        <v>12.09</v>
+        <v>3.29</v>
       </c>
       <c r="E472" t="s">
         <v>9</v>
@@ -14228,10 +14230,10 @@
         <v>12</v>
       </c>
       <c r="C473">
-        <v>1.34</v>
+        <v>2.75</v>
       </c>
       <c r="D473">
-        <v>2.4300000000000002</v>
+        <v>4.38</v>
       </c>
       <c r="E473" t="s">
         <v>9</v>
@@ -14243,7 +14245,7 @@
         <v>14</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.3">
@@ -14254,10 +14256,10 @@
         <v>19</v>
       </c>
       <c r="C474">
-        <v>7.71</v>
+        <v>5.38</v>
       </c>
       <c r="D474">
-        <v>17.77</v>
+        <v>5.79</v>
       </c>
       <c r="E474" t="s">
         <v>9</v>
@@ -14280,10 +14282,10 @@
         <v>8</v>
       </c>
       <c r="C475">
-        <v>5.37</v>
+        <v>11.47</v>
       </c>
       <c r="D475">
-        <v>13.28</v>
+        <v>13.01</v>
       </c>
       <c r="E475" t="s">
         <v>13</v>
@@ -14306,16 +14308,16 @@
         <v>12</v>
       </c>
       <c r="C476">
-        <v>3.12</v>
+        <v>2.7</v>
       </c>
       <c r="D476">
-        <v>4.72</v>
+        <v>3.7</v>
       </c>
       <c r="E476" t="s">
         <v>13</v>
       </c>
       <c r="F476">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G476" t="s">
         <v>14</v>
@@ -14332,10 +14334,10 @@
         <v>8</v>
       </c>
       <c r="C477">
-        <v>3.75</v>
+        <v>14.23</v>
       </c>
       <c r="D477">
-        <v>7.78</v>
+        <v>11.49</v>
       </c>
       <c r="E477" t="s">
         <v>9</v>
@@ -14347,7 +14349,7 @@
         <v>10</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.3">
@@ -14358,10 +14360,10 @@
         <v>19</v>
       </c>
       <c r="C478">
-        <v>6.22</v>
+        <v>3.75</v>
       </c>
       <c r="D478">
-        <v>9.36</v>
+        <v>5.5</v>
       </c>
       <c r="E478" t="s">
         <v>13</v>
@@ -14373,7 +14375,7 @@
         <v>10</v>
       </c>
       <c r="H478">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.3">
@@ -14384,10 +14386,10 @@
         <v>19</v>
       </c>
       <c r="C479">
-        <v>8.5</v>
+        <v>6.03</v>
       </c>
       <c r="D479">
-        <v>21.15</v>
+        <v>7.52</v>
       </c>
       <c r="E479" t="s">
         <v>9</v>
@@ -14410,10 +14412,10 @@
         <v>19</v>
       </c>
       <c r="C480">
-        <v>9.0299999999999994</v>
+        <v>6.6</v>
       </c>
       <c r="D480">
-        <v>21.71</v>
+        <v>7.48</v>
       </c>
       <c r="E480" t="s">
         <v>9</v>
@@ -14436,22 +14438,22 @@
         <v>12</v>
       </c>
       <c r="C481">
-        <v>7.05</v>
+        <v>1.63</v>
       </c>
       <c r="D481">
-        <v>14.62</v>
+        <v>4.12</v>
       </c>
       <c r="E481" t="s">
         <v>13</v>
       </c>
       <c r="F481">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G481" t="s">
         <v>10</v>
       </c>
       <c r="H481">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.3">
@@ -14462,22 +14464,22 @@
         <v>12</v>
       </c>
       <c r="C482">
-        <v>3.21</v>
+        <v>2.67</v>
       </c>
       <c r="D482">
-        <v>5.16</v>
+        <v>4.32</v>
       </c>
       <c r="E482" t="s">
         <v>13</v>
       </c>
       <c r="F482">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G482" t="s">
         <v>10</v>
       </c>
       <c r="H482">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.3">
@@ -14488,10 +14490,10 @@
         <v>8</v>
       </c>
       <c r="C483">
-        <v>2.79</v>
+        <v>13.13</v>
       </c>
       <c r="D483">
-        <v>6.88</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="E483" t="s">
         <v>9</v>
@@ -14514,10 +14516,10 @@
         <v>19</v>
       </c>
       <c r="C484">
-        <v>3.58</v>
+        <v>8.06</v>
       </c>
       <c r="D484">
-        <v>5.74</v>
+        <v>6.69</v>
       </c>
       <c r="E484" t="s">
         <v>13</v>
@@ -14540,22 +14542,22 @@
         <v>12</v>
       </c>
       <c r="C485">
-        <v>4.49</v>
+        <v>1.45</v>
       </c>
       <c r="D485">
-        <v>10.3</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="E485" t="s">
         <v>13</v>
       </c>
       <c r="F485">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G485" t="s">
         <v>14</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.3">
@@ -14566,10 +14568,10 @@
         <v>8</v>
       </c>
       <c r="C486">
-        <v>2.94</v>
+        <v>10.93</v>
       </c>
       <c r="D486">
-        <v>6.47</v>
+        <v>11.74</v>
       </c>
       <c r="E486" t="s">
         <v>13</v>
@@ -14581,7 +14583,7 @@
         <v>10</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.3">
@@ -14592,10 +14594,10 @@
         <v>19</v>
       </c>
       <c r="C487">
-        <v>9.8699999999999992</v>
+        <v>5.12</v>
       </c>
       <c r="D487">
-        <v>20.98</v>
+        <v>7.24</v>
       </c>
       <c r="E487" t="s">
         <v>9</v>
@@ -14607,7 +14609,7 @@
         <v>10</v>
       </c>
       <c r="H487">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.3">
@@ -14618,10 +14620,10 @@
         <v>19</v>
       </c>
       <c r="C488">
-        <v>6.96</v>
+        <v>5.7</v>
       </c>
       <c r="D488">
-        <v>11.29</v>
+        <v>7.38</v>
       </c>
       <c r="E488" t="s">
         <v>13</v>
@@ -14644,10 +14646,10 @@
         <v>19</v>
       </c>
       <c r="C489">
-        <v>8.48</v>
+        <v>6.71</v>
       </c>
       <c r="D489">
-        <v>12.91</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E489" t="s">
         <v>13</v>
@@ -14670,10 +14672,10 @@
         <v>8</v>
       </c>
       <c r="C490">
-        <v>1.22</v>
+        <v>14.22</v>
       </c>
       <c r="D490">
-        <v>2.4300000000000002</v>
+        <v>12.07</v>
       </c>
       <c r="E490" t="s">
         <v>13</v>
@@ -14696,10 +14698,10 @@
         <v>12</v>
       </c>
       <c r="C491">
-        <v>4.0199999999999996</v>
+        <v>1.24</v>
       </c>
       <c r="D491">
-        <v>9.5500000000000007</v>
+        <v>3.31</v>
       </c>
       <c r="E491" t="s">
         <v>9</v>
@@ -14722,10 +14724,10 @@
         <v>8</v>
       </c>
       <c r="C492">
-        <v>1.49</v>
+        <v>11.43</v>
       </c>
       <c r="D492">
-        <v>3.46</v>
+        <v>11.56</v>
       </c>
       <c r="E492" t="s">
         <v>13</v>
@@ -14748,22 +14750,22 @@
         <v>12</v>
       </c>
       <c r="C493">
-        <v>0.84</v>
+        <v>2.25</v>
       </c>
       <c r="D493">
-        <v>1.69</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="E493" t="s">
         <v>13</v>
       </c>
       <c r="F493">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G493" t="s">
         <v>10</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.3">
@@ -14774,10 +14776,10 @@
         <v>19</v>
       </c>
       <c r="C494">
-        <v>4.55</v>
+        <v>4.91</v>
       </c>
       <c r="D494">
-        <v>7.02</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="E494" t="s">
         <v>9</v>
@@ -14789,7 +14791,7 @@
         <v>10</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.3">
@@ -14800,16 +14802,16 @@
         <v>12</v>
       </c>
       <c r="C495">
-        <v>5.82</v>
+        <v>1.45</v>
       </c>
       <c r="D495">
-        <v>12.04</v>
+        <v>3.41</v>
       </c>
       <c r="E495" t="s">
         <v>13</v>
       </c>
       <c r="F495">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G495" t="s">
         <v>10</v>
@@ -14826,10 +14828,10 @@
         <v>19</v>
       </c>
       <c r="C496">
-        <v>6.24</v>
+        <v>3.54</v>
       </c>
       <c r="D496">
-        <v>9.85</v>
+        <v>9.06</v>
       </c>
       <c r="E496" t="s">
         <v>9</v>
@@ -14841,7 +14843,7 @@
         <v>10</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.3">
@@ -14852,10 +14854,10 @@
         <v>8</v>
       </c>
       <c r="C497">
-        <v>2.73</v>
+        <v>13.6</v>
       </c>
       <c r="D497">
-        <v>4.33</v>
+        <v>10.02</v>
       </c>
       <c r="E497" t="s">
         <v>13</v>
@@ -14878,10 +14880,10 @@
         <v>19</v>
       </c>
       <c r="C498">
-        <v>7.48</v>
+        <v>5.41</v>
       </c>
       <c r="D498">
-        <v>18.350000000000001</v>
+        <v>6.43</v>
       </c>
       <c r="E498" t="s">
         <v>9</v>
@@ -14893,7 +14895,7 @@
         <v>10</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.3">
@@ -14904,10 +14906,10 @@
         <v>19</v>
       </c>
       <c r="C499">
-        <v>7.63</v>
+        <v>6.35</v>
       </c>
       <c r="D499">
-        <v>13.3</v>
+        <v>8.24</v>
       </c>
       <c r="E499" t="s">
         <v>9</v>
@@ -14930,10 +14932,10 @@
         <v>8</v>
       </c>
       <c r="C500">
-        <v>8.14</v>
+        <v>12.54</v>
       </c>
       <c r="D500">
-        <v>17.579999999999998</v>
+        <v>13.73</v>
       </c>
       <c r="E500" t="s">
         <v>9</v>
@@ -14945,7 +14947,7 @@
         <v>10</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.3">
@@ -14956,10 +14958,10 @@
         <v>19</v>
       </c>
       <c r="C501">
-        <v>2.98</v>
+        <v>3.76</v>
       </c>
       <c r="D501">
-        <v>7.39</v>
+        <v>8.34</v>
       </c>
       <c r="E501" t="s">
         <v>9</v>
@@ -14971,7 +14973,7 @@
         <v>10</v>
       </c>
       <c r="H501">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -14985,7 +14987,7 @@
   <dimension ref="A1:C149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14996,7 +14998,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
@@ -15057,7 +15059,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -15068,7 +15070,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -15079,7 +15081,7 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -15090,7 +15092,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -15112,7 +15114,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -15134,7 +15136,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -15145,7 +15147,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -15178,7 +15180,7 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -15200,7 +15202,7 @@
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -15211,7 +15213,7 @@
         <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -15244,7 +15246,7 @@
         <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -15277,7 +15279,7 @@
         <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -15288,7 +15290,7 @@
         <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -15321,7 +15323,7 @@
         <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -15332,7 +15334,7 @@
         <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -15343,7 +15345,7 @@
         <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -15387,7 +15389,7 @@
         <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -15420,7 +15422,7 @@
         <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -15442,7 +15444,7 @@
         <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -15453,7 +15455,7 @@
         <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -15475,7 +15477,7 @@
         <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -15508,7 +15510,7 @@
         <v>14</v>
       </c>
       <c r="C47" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -15519,7 +15521,7 @@
         <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -15552,7 +15554,7 @@
         <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -15585,7 +15587,7 @@
         <v>14</v>
       </c>
       <c r="C54" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -15596,7 +15598,7 @@
         <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -15618,7 +15620,7 @@
         <v>14</v>
       </c>
       <c r="C57" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -15640,7 +15642,7 @@
         <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -15662,7 +15664,7 @@
         <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -15695,7 +15697,7 @@
         <v>14</v>
       </c>
       <c r="C64" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -15706,7 +15708,7 @@
         <v>14</v>
       </c>
       <c r="C65" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -15728,7 +15730,7 @@
         <v>14</v>
       </c>
       <c r="C67" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -15750,7 +15752,7 @@
         <v>14</v>
       </c>
       <c r="C69" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -15761,7 +15763,7 @@
         <v>14</v>
       </c>
       <c r="C70" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -15772,7 +15774,7 @@
         <v>14</v>
       </c>
       <c r="C71" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -15783,7 +15785,7 @@
         <v>14</v>
       </c>
       <c r="C72" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -15816,7 +15818,7 @@
         <v>14</v>
       </c>
       <c r="C75" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -15838,7 +15840,7 @@
         <v>14</v>
       </c>
       <c r="C77" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -15849,7 +15851,7 @@
         <v>14</v>
       </c>
       <c r="C78" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -15882,7 +15884,7 @@
         <v>14</v>
       </c>
       <c r="C81" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -15904,7 +15906,7 @@
         <v>14</v>
       </c>
       <c r="C83" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -15915,7 +15917,7 @@
         <v>14</v>
       </c>
       <c r="C84" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -15948,7 +15950,7 @@
         <v>14</v>
       </c>
       <c r="C87" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -15959,7 +15961,7 @@
         <v>14</v>
       </c>
       <c r="C88" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -16025,7 +16027,7 @@
         <v>14</v>
       </c>
       <c r="C94" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -16080,7 +16082,7 @@
         <v>14</v>
       </c>
       <c r="C99" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -16179,7 +16181,7 @@
         <v>14</v>
       </c>
       <c r="C108" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
@@ -16201,7 +16203,7 @@
         <v>14</v>
       </c>
       <c r="C110" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -16212,7 +16214,7 @@
         <v>14</v>
       </c>
       <c r="C111" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -16289,7 +16291,7 @@
         <v>14</v>
       </c>
       <c r="C118" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -16311,7 +16313,7 @@
         <v>14</v>
       </c>
       <c r="C120" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -16322,7 +16324,7 @@
         <v>14</v>
       </c>
       <c r="C121" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -16355,7 +16357,7 @@
         <v>14</v>
       </c>
       <c r="C124" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -16366,7 +16368,7 @@
         <v>14</v>
       </c>
       <c r="C125" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -16432,7 +16434,7 @@
         <v>14</v>
       </c>
       <c r="C131" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -16443,7 +16445,7 @@
         <v>14</v>
       </c>
       <c r="C132" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
@@ -16454,7 +16456,7 @@
         <v>14</v>
       </c>
       <c r="C133" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -16509,7 +16511,7 @@
         <v>14</v>
       </c>
       <c r="C138" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
@@ -16520,7 +16522,7 @@
         <v>14</v>
       </c>
       <c r="C139" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
@@ -16531,7 +16533,7 @@
         <v>14</v>
       </c>
       <c r="C140" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -16564,7 +16566,7 @@
         <v>14</v>
       </c>
       <c r="C143" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -16575,7 +16577,7 @@
         <v>14</v>
       </c>
       <c r="C144" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
@@ -16586,7 +16588,7 @@
         <v>14</v>
       </c>
       <c r="C145" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
@@ -16619,7 +16621,7 @@
         <v>14</v>
       </c>
       <c r="C148" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
@@ -16630,7 +16632,7 @@
         <v>14</v>
       </c>
       <c r="C149" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>
